--- a/static/download/2020年06月24日周三.xlsx
+++ b/static/download/2020年06月24日周三.xlsx
@@ -3916,26 +3916,14 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="E76" s="5" t="inlineStr">
-        <is>
-          <t>5Y</t>
-        </is>
-      </c>
-      <c r="F76" s="5" t="inlineStr">
-        <is>
-          <t>20北京国资MTN001</t>
-        </is>
-      </c>
-      <c r="G76" s="5" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="H76" s="6" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="E76" s="36" t="inlineStr">
+        <is>
+          <t>企业债</t>
+        </is>
+      </c>
+      <c r="F76" s="34" t="n"/>
+      <c r="G76" s="34" t="n"/>
+      <c r="H76" s="35" t="n"/>
     </row>
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
@@ -3960,22 +3948,22 @@
       </c>
       <c r="E77" s="5" t="inlineStr">
         <is>
-          <t>10.43Y</t>
+          <t>0.58Y+2Y</t>
         </is>
       </c>
       <c r="F77" s="5" t="inlineStr">
         <is>
-          <t>15华能集MTN003</t>
+          <t>16融地01</t>
         </is>
       </c>
       <c r="G77" s="5" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="H77" s="6" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>AAA/AA+</t>
         </is>
       </c>
     </row>
@@ -4000,14 +3988,26 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="E78" s="36" t="inlineStr">
-        <is>
-          <t>企业债</t>
-        </is>
-      </c>
-      <c r="F78" s="34" t="n"/>
-      <c r="G78" s="34" t="n"/>
-      <c r="H78" s="35" t="n"/>
+      <c r="E78" s="5" t="inlineStr">
+        <is>
+          <t>219D</t>
+        </is>
+      </c>
+      <c r="F78" s="5" t="inlineStr">
+        <is>
+          <t>16铁工01</t>
+        </is>
+      </c>
+      <c r="G78" s="5" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="H78" s="6" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
@@ -4032,17 +4032,17 @@
       </c>
       <c r="E79" s="5" t="inlineStr">
         <is>
-          <t>6D</t>
+          <t>219D</t>
         </is>
       </c>
       <c r="F79" s="5" t="inlineStr">
         <is>
-          <t>05粤交通</t>
+          <t>16铁工01</t>
         </is>
       </c>
       <c r="G79" s="5" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="H79" s="6" t="inlineStr">
@@ -4074,17 +4074,17 @@
       </c>
       <c r="E80" s="5" t="inlineStr">
         <is>
-          <t>13D</t>
+          <t>0.7Y+5Y</t>
         </is>
       </c>
       <c r="F80" s="5" t="inlineStr">
         <is>
-          <t>17国信二</t>
+          <t>16东莞银行二级</t>
         </is>
       </c>
       <c r="G80" s="5" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.50行权</t>
         </is>
       </c>
       <c r="H80" s="6" t="inlineStr">
@@ -4116,17 +4116,17 @@
       </c>
       <c r="E81" s="5" t="inlineStr">
         <is>
-          <t>19D(休1)</t>
+          <t>272D</t>
         </is>
       </c>
       <c r="F81" s="5" t="inlineStr">
         <is>
-          <t>17世茂G1</t>
+          <t>18海通02</t>
         </is>
       </c>
       <c r="G81" s="5" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="H81" s="6" t="inlineStr">
@@ -4158,17 +4158,17 @@
       </c>
       <c r="E82" s="5" t="inlineStr">
         <is>
-          <t>19D(休1)</t>
+          <t>284D+NY(休3)</t>
         </is>
       </c>
       <c r="F82" s="5" t="inlineStr">
         <is>
-          <t>17世茂G1</t>
+          <t>18河钢Y1</t>
         </is>
       </c>
       <c r="G82" s="5" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="H82" s="6" t="inlineStr">
@@ -4200,17 +4200,17 @@
       </c>
       <c r="E83" s="5" t="inlineStr">
         <is>
-          <t>66D</t>
+          <t>0.8Y+2Y</t>
         </is>
       </c>
       <c r="F83" s="5" t="inlineStr">
         <is>
-          <t>15齐鲁债</t>
+          <t>18亚迪01</t>
         </is>
       </c>
       <c r="G83" s="5" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="H83" s="6" t="inlineStr">
@@ -4242,17 +4242,17 @@
       </c>
       <c r="E84" s="5" t="inlineStr">
         <is>
-          <t>66D</t>
+          <t>0.84Y+2Y</t>
         </is>
       </c>
       <c r="F84" s="5" t="inlineStr">
         <is>
-          <t>15齐鲁债</t>
+          <t>18厦港01</t>
         </is>
       </c>
       <c r="G84" s="5" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="H84" s="6" t="inlineStr">
@@ -4284,17 +4284,17 @@
       </c>
       <c r="E85" s="5" t="inlineStr">
         <is>
-          <t>0.2Y+2Y</t>
+          <t>308D</t>
         </is>
       </c>
       <c r="F85" s="5" t="inlineStr">
         <is>
-          <t>17信债01</t>
+          <t>18陕煤01</t>
         </is>
       </c>
       <c r="G85" s="5" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="H85" s="6" t="inlineStr">
@@ -4326,17 +4326,17 @@
       </c>
       <c r="E86" s="5" t="inlineStr">
         <is>
-          <t>85D+2Y</t>
+          <t>308D</t>
         </is>
       </c>
       <c r="F86" s="5" t="inlineStr">
         <is>
-          <t>15绿城03</t>
+          <t>18陕煤01</t>
         </is>
       </c>
       <c r="G86" s="5" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="H86" s="6" t="inlineStr">
@@ -4368,17 +4368,17 @@
       </c>
       <c r="E87" s="5" t="inlineStr">
         <is>
-          <t>85D+2Y</t>
+          <t>0.85Y+2Y</t>
         </is>
       </c>
       <c r="F87" s="5" t="inlineStr">
         <is>
-          <t>15绿城03</t>
+          <t>18新工01</t>
         </is>
       </c>
       <c r="G87" s="5" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="H87" s="6" t="inlineStr">
@@ -4410,17 +4410,17 @@
       </c>
       <c r="E88" s="5" t="inlineStr">
         <is>
-          <t>87D</t>
+          <t>337D</t>
         </is>
       </c>
       <c r="F88" s="5" t="inlineStr">
         <is>
-          <t>17银河G2</t>
+          <t>16复星03</t>
         </is>
       </c>
       <c r="G88" s="5" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="H88" s="6" t="inlineStr">
@@ -4452,17 +4452,17 @@
       </c>
       <c r="E89" s="5" t="inlineStr">
         <is>
-          <t>110D(休1)</t>
+          <t>337D</t>
         </is>
       </c>
       <c r="F89" s="5" t="inlineStr">
         <is>
-          <t>13锡城发债</t>
+          <t>16复星03</t>
         </is>
       </c>
       <c r="G89" s="5" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="H89" s="6" t="inlineStr">
@@ -4494,17 +4494,17 @@
       </c>
       <c r="E90" s="5" t="inlineStr">
         <is>
-          <t>115D</t>
+          <t>337D</t>
         </is>
       </c>
       <c r="F90" s="5" t="inlineStr">
         <is>
-          <t>14国电03</t>
+          <t>16复星03</t>
         </is>
       </c>
       <c r="G90" s="5" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="H90" s="6" t="inlineStr">
@@ -4536,17 +4536,17 @@
       </c>
       <c r="E91" s="5" t="inlineStr">
         <is>
-          <t>115D</t>
+          <t>337D</t>
         </is>
       </c>
       <c r="F91" s="5" t="inlineStr">
         <is>
-          <t>14国电03</t>
+          <t>16复星03</t>
         </is>
       </c>
       <c r="G91" s="5" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="H91" s="6" t="inlineStr">
@@ -4578,17 +4578,17 @@
       </c>
       <c r="E92" s="5" t="inlineStr">
         <is>
-          <t>115D</t>
+          <t>353D</t>
         </is>
       </c>
       <c r="F92" s="5" t="inlineStr">
         <is>
-          <t>15恒大04</t>
+          <t>18蛇口04</t>
         </is>
       </c>
       <c r="G92" s="5" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="H92" s="6" t="inlineStr">
@@ -4620,17 +4620,17 @@
       </c>
       <c r="E93" s="5" t="inlineStr">
         <is>
-          <t>0.32Y+3Y</t>
+          <t>362D(休1)</t>
         </is>
       </c>
       <c r="F93" s="5" t="inlineStr">
         <is>
-          <t>18阳煤02</t>
+          <t>16长沙01</t>
         </is>
       </c>
       <c r="G93" s="5" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="H93" s="6" t="inlineStr">
@@ -4662,17 +4662,17 @@
       </c>
       <c r="E94" s="5" t="inlineStr">
         <is>
-          <t>0.34Y+2Y</t>
+          <t>1.01Y</t>
         </is>
       </c>
       <c r="F94" s="5" t="inlineStr">
         <is>
-          <t>17苏保债</t>
+          <t>18中金06</t>
         </is>
       </c>
       <c r="G94" s="5" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="H94" s="6" t="inlineStr">
@@ -4704,17 +4704,17 @@
       </c>
       <c r="E95" s="5" t="inlineStr">
         <is>
-          <t>149D</t>
+          <t>1.04Y</t>
         </is>
       </c>
       <c r="F95" s="5" t="inlineStr">
         <is>
-          <t>15石化02</t>
+          <t>16广电02</t>
         </is>
       </c>
       <c r="G95" s="5" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="H95" s="6" t="inlineStr">
@@ -4746,17 +4746,17 @@
       </c>
       <c r="E96" s="5" t="inlineStr">
         <is>
-          <t>150D</t>
+          <t>1.04Y+2Y</t>
         </is>
       </c>
       <c r="F96" s="5" t="inlineStr">
         <is>
-          <t>17深能02</t>
+          <t>18中煤05</t>
         </is>
       </c>
       <c r="G96" s="5" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.81行权</t>
         </is>
       </c>
       <c r="H96" s="6" t="inlineStr">
@@ -4788,17 +4788,17 @@
       </c>
       <c r="E97" s="5" t="inlineStr">
         <is>
-          <t>150D</t>
+          <t>1.04Y</t>
         </is>
       </c>
       <c r="F97" s="5" t="inlineStr">
         <is>
-          <t>17深能02</t>
+          <t>16广电02</t>
         </is>
       </c>
       <c r="G97" s="5" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="H97" s="6" t="inlineStr">
@@ -4830,17 +4830,17 @@
       </c>
       <c r="E98" s="5" t="inlineStr">
         <is>
-          <t>150D</t>
+          <t>1.07Y</t>
         </is>
       </c>
       <c r="F98" s="5" t="inlineStr">
         <is>
-          <t>17深能02</t>
+          <t>18航技03</t>
         </is>
       </c>
       <c r="G98" s="5" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="H98" s="6" t="inlineStr">
@@ -4872,17 +4872,17 @@
       </c>
       <c r="E99" s="5" t="inlineStr">
         <is>
-          <t>171D</t>
+          <t>1.07Y+2Y</t>
         </is>
       </c>
       <c r="F99" s="5" t="inlineStr">
         <is>
-          <t>15晋交01</t>
+          <t>18国科02</t>
         </is>
       </c>
       <c r="G99" s="5" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="H99" s="6" t="inlineStr">
@@ -4914,17 +4914,17 @@
       </c>
       <c r="E100" s="5" t="inlineStr">
         <is>
-          <t>177D</t>
+          <t>1.07Y+2Y</t>
         </is>
       </c>
       <c r="F100" s="5" t="inlineStr">
         <is>
-          <t>15鲁高01</t>
+          <t>18国科02</t>
         </is>
       </c>
       <c r="G100" s="5" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="H100" s="6" t="inlineStr">
@@ -4956,22 +4956,22 @@
       </c>
       <c r="E101" s="5" t="inlineStr">
         <is>
-          <t>0.58Y+2Y</t>
+          <t>1.07Y+2Y</t>
         </is>
       </c>
       <c r="F101" s="5" t="inlineStr">
         <is>
-          <t>16融地01</t>
+          <t>18国科02</t>
         </is>
       </c>
       <c r="G101" s="5" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="H101" s="6" t="inlineStr">
         <is>
-          <t>AAA/AA+</t>
+          <t>AAA</t>
         </is>
       </c>
     </row>
@@ -4998,17 +4998,17 @@
       </c>
       <c r="E102" s="5" t="inlineStr">
         <is>
-          <t>219D</t>
+          <t>1.07Y+2Y</t>
         </is>
       </c>
       <c r="F102" s="5" t="inlineStr">
         <is>
-          <t>16铁工01</t>
+          <t>18国科02</t>
         </is>
       </c>
       <c r="G102" s="5" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="H102" s="6" t="inlineStr">
@@ -5040,17 +5040,17 @@
       </c>
       <c r="E103" s="5" t="inlineStr">
         <is>
-          <t>219D</t>
+          <t>1.08Y</t>
         </is>
       </c>
       <c r="F103" s="5" t="inlineStr">
         <is>
-          <t>16铁工01</t>
+          <t>16光控02</t>
         </is>
       </c>
       <c r="G103" s="5" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="H103" s="6" t="inlineStr">
@@ -5082,17 +5082,17 @@
       </c>
       <c r="E104" s="5" t="inlineStr">
         <is>
-          <t>0.7Y+5Y</t>
+          <t>1.08Y</t>
         </is>
       </c>
       <c r="F104" s="5" t="inlineStr">
         <is>
-          <t>16东莞银行二级</t>
+          <t>16光控02</t>
         </is>
       </c>
       <c r="G104" s="5" t="inlineStr">
         <is>
-          <t>3.50行权</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="H104" s="6" t="inlineStr">
@@ -5124,17 +5124,17 @@
       </c>
       <c r="E105" s="5" t="inlineStr">
         <is>
-          <t>272D</t>
+          <t>1.08Y</t>
         </is>
       </c>
       <c r="F105" s="5" t="inlineStr">
         <is>
-          <t>18海通02</t>
+          <t>16光控02</t>
         </is>
       </c>
       <c r="G105" s="5" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="H105" s="6" t="inlineStr">
@@ -5166,17 +5166,17 @@
       </c>
       <c r="E106" s="5" t="inlineStr">
         <is>
-          <t>284D+NY(休3)</t>
+          <t>1.08Y</t>
         </is>
       </c>
       <c r="F106" s="5" t="inlineStr">
         <is>
-          <t>18河钢Y1</t>
+          <t>16光控02</t>
         </is>
       </c>
       <c r="G106" s="5" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="H106" s="6" t="inlineStr">
@@ -5208,17 +5208,17 @@
       </c>
       <c r="E107" s="5" t="inlineStr">
         <is>
-          <t>0.8Y+2Y</t>
+          <t>1.08Y</t>
         </is>
       </c>
       <c r="F107" s="5" t="inlineStr">
         <is>
-          <t>18亚迪01</t>
+          <t>16光控02</t>
         </is>
       </c>
       <c r="G107" s="5" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="H107" s="6" t="inlineStr">
@@ -5250,17 +5250,17 @@
       </c>
       <c r="E108" s="5" t="inlineStr">
         <is>
-          <t>0.84Y+2Y</t>
+          <t>1.1Y+2Y</t>
         </is>
       </c>
       <c r="F108" s="5" t="inlineStr">
         <is>
-          <t>18厦港01</t>
+          <t>16水务02</t>
         </is>
       </c>
       <c r="G108" s="5" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="H108" s="6" t="inlineStr">
@@ -5292,17 +5292,17 @@
       </c>
       <c r="E109" s="5" t="inlineStr">
         <is>
-          <t>308D</t>
+          <t>1.10Y+2Y</t>
         </is>
       </c>
       <c r="F109" s="5" t="inlineStr">
         <is>
-          <t>18陕煤01</t>
+          <t>18张江02</t>
         </is>
       </c>
       <c r="G109" s="5" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="H109" s="6" t="inlineStr">
@@ -5334,17 +5334,17 @@
       </c>
       <c r="E110" s="5" t="inlineStr">
         <is>
-          <t>308D</t>
+          <t>1.1Y+2Y</t>
         </is>
       </c>
       <c r="F110" s="5" t="inlineStr">
         <is>
-          <t>18陕煤01</t>
+          <t>16水务02</t>
         </is>
       </c>
       <c r="G110" s="5" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="H110" s="6" t="inlineStr">
@@ -5376,17 +5376,17 @@
       </c>
       <c r="E111" s="5" t="inlineStr">
         <is>
-          <t>0.85Y+2Y</t>
+          <t>1.1Y+2Y</t>
         </is>
       </c>
       <c r="F111" s="5" t="inlineStr">
         <is>
-          <t>18新工01</t>
+          <t>16水务02</t>
         </is>
       </c>
       <c r="G111" s="5" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="H111" s="6" t="inlineStr">
@@ -5418,17 +5418,17 @@
       </c>
       <c r="E112" s="5" t="inlineStr">
         <is>
-          <t>337D</t>
+          <t>1.1Y+2Y</t>
         </is>
       </c>
       <c r="F112" s="5" t="inlineStr">
         <is>
-          <t>16复星03</t>
+          <t>16水务02</t>
         </is>
       </c>
       <c r="G112" s="5" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="H112" s="6" t="inlineStr">
@@ -5460,17 +5460,17 @@
       </c>
       <c r="E113" s="5" t="inlineStr">
         <is>
-          <t>337D</t>
+          <t>1.15Y</t>
         </is>
       </c>
       <c r="F113" s="5" t="inlineStr">
         <is>
-          <t>16复星03</t>
+          <t>18盛京银行01</t>
         </is>
       </c>
       <c r="G113" s="5" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="H113" s="6" t="inlineStr">
@@ -5502,17 +5502,17 @@
       </c>
       <c r="E114" s="5" t="inlineStr">
         <is>
-          <t>337D</t>
+          <t>1.18Y</t>
         </is>
       </c>
       <c r="F114" s="5" t="inlineStr">
         <is>
-          <t>16复星03</t>
+          <t>18浙商银行01</t>
         </is>
       </c>
       <c r="G114" s="5" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="H114" s="6" t="inlineStr">
@@ -5544,17 +5544,17 @@
       </c>
       <c r="E115" s="5" t="inlineStr">
         <is>
-          <t>337D</t>
+          <t>1.19Y</t>
         </is>
       </c>
       <c r="F115" s="5" t="inlineStr">
         <is>
-          <t>16复星03</t>
+          <t>18贵阳银行绿色金融01</t>
         </is>
       </c>
       <c r="G115" s="5" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="H115" s="6" t="inlineStr">
@@ -5586,17 +5586,17 @@
       </c>
       <c r="E116" s="5" t="inlineStr">
         <is>
-          <t>353D</t>
+          <t>1.24Y+2Y</t>
         </is>
       </c>
       <c r="F116" s="5" t="inlineStr">
         <is>
-          <t>18蛇口04</t>
+          <t>18杭城01</t>
         </is>
       </c>
       <c r="G116" s="5" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="H116" s="6" t="inlineStr">
@@ -5628,17 +5628,17 @@
       </c>
       <c r="E117" s="5" t="inlineStr">
         <is>
-          <t>362D(休1)</t>
+          <t>1.24Y+2Y</t>
         </is>
       </c>
       <c r="F117" s="5" t="inlineStr">
         <is>
-          <t>16长沙01</t>
+          <t>18通用01</t>
         </is>
       </c>
       <c r="G117" s="5" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="H117" s="6" t="inlineStr">
@@ -5670,17 +5670,17 @@
       </c>
       <c r="E118" s="5" t="inlineStr">
         <is>
-          <t>1.01Y</t>
+          <t>1.31Y</t>
         </is>
       </c>
       <c r="F118" s="5" t="inlineStr">
         <is>
-          <t>18中金06</t>
+          <t>16余城建</t>
         </is>
       </c>
       <c r="G118" s="5" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="H118" s="6" t="inlineStr">
@@ -5712,17 +5712,17 @@
       </c>
       <c r="E119" s="5" t="inlineStr">
         <is>
-          <t>1.04Y</t>
+          <t>1.32Y</t>
         </is>
       </c>
       <c r="F119" s="5" t="inlineStr">
         <is>
-          <t>16广电02</t>
+          <t>18航技04</t>
         </is>
       </c>
       <c r="G119" s="5" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="H119" s="6" t="inlineStr">
@@ -5754,17 +5754,17 @@
       </c>
       <c r="E120" s="5" t="inlineStr">
         <is>
-          <t>1.04Y+2Y</t>
+          <t>1.33Y</t>
         </is>
       </c>
       <c r="F120" s="5" t="inlineStr">
         <is>
-          <t>18中煤05</t>
+          <t>16兴业03</t>
         </is>
       </c>
       <c r="G120" s="5" t="inlineStr">
         <is>
-          <t>2.81行权</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="H120" s="6" t="inlineStr">
@@ -5796,17 +5796,17 @@
       </c>
       <c r="E121" s="5" t="inlineStr">
         <is>
-          <t>1.04Y</t>
+          <t>1.33Y+3Y</t>
         </is>
       </c>
       <c r="F121" s="5" t="inlineStr">
         <is>
-          <t>16广电02</t>
+          <t>18中海01</t>
         </is>
       </c>
       <c r="G121" s="5" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="H121" s="6" t="inlineStr">
@@ -5838,17 +5838,17 @@
       </c>
       <c r="E122" s="5" t="inlineStr">
         <is>
-          <t>1.07Y</t>
+          <t>1.34Y+2Y</t>
         </is>
       </c>
       <c r="F122" s="5" t="inlineStr">
         <is>
-          <t>18航技03</t>
+          <t>16中金04</t>
         </is>
       </c>
       <c r="G122" s="5" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="H122" s="6" t="inlineStr">
@@ -5880,17 +5880,17 @@
       </c>
       <c r="E123" s="5" t="inlineStr">
         <is>
-          <t>1.07Y+2Y</t>
+          <t>1.38Y</t>
         </is>
       </c>
       <c r="F123" s="5" t="inlineStr">
         <is>
-          <t>18国科02</t>
+          <t>18光大01</t>
         </is>
       </c>
       <c r="G123" s="5" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="H123" s="6" t="inlineStr">
@@ -5922,17 +5922,17 @@
       </c>
       <c r="E124" s="9" t="inlineStr">
         <is>
-          <t>1.07Y+2Y</t>
+          <t>1.39Y</t>
         </is>
       </c>
       <c r="F124" s="9" t="inlineStr">
         <is>
-          <t>18国科02</t>
+          <t>19华电06</t>
         </is>
       </c>
       <c r="G124" s="9" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="H124" s="10" t="inlineStr">
@@ -6003,17 +6003,17 @@
     <row r="127">
       <c r="A127" s="3" t="inlineStr">
         <is>
-          <t>1.07Y+2Y</t>
+          <t>1.39Y</t>
         </is>
       </c>
       <c r="B127" s="4" t="inlineStr">
         <is>
-          <t>18国科02</t>
+          <t>19华电06</t>
         </is>
       </c>
       <c r="C127" s="4" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="D127" s="4" t="inlineStr">
@@ -6023,17 +6023,17 @@
       </c>
       <c r="E127" s="5" t="inlineStr">
         <is>
-          <t>2.40Y+N</t>
+          <t>2.72Y</t>
         </is>
       </c>
       <c r="F127" s="5" t="inlineStr">
         <is>
-          <t>19电建Y1</t>
+          <t>13京投债</t>
         </is>
       </c>
       <c r="G127" s="5" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="H127" s="6" t="inlineStr">
@@ -6045,17 +6045,17 @@
     <row r="128">
       <c r="A128" s="3" t="inlineStr">
         <is>
-          <t>1.07Y+2Y</t>
+          <t>1.39Y</t>
         </is>
       </c>
       <c r="B128" s="4" t="inlineStr">
         <is>
-          <t>18国科02</t>
+          <t>19华电06</t>
         </is>
       </c>
       <c r="C128" s="4" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="D128" s="4" t="inlineStr">
@@ -6065,17 +6065,17 @@
       </c>
       <c r="E128" s="5" t="inlineStr">
         <is>
-          <t>2.40Y+N</t>
+          <t>2.72Y</t>
         </is>
       </c>
       <c r="F128" s="5" t="inlineStr">
         <is>
-          <t>19电建Y1</t>
+          <t>13京投债</t>
         </is>
       </c>
       <c r="G128" s="5" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="H128" s="6" t="inlineStr">
@@ -6087,17 +6087,17 @@
     <row r="129">
       <c r="A129" s="3" t="inlineStr">
         <is>
-          <t>1.08Y</t>
+          <t>1.48Y</t>
         </is>
       </c>
       <c r="B129" s="4" t="inlineStr">
         <is>
-          <t>16光控02</t>
+          <t>18民生银行02</t>
         </is>
       </c>
       <c r="C129" s="4" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="D129" s="4" t="inlineStr">
@@ -6107,17 +6107,17 @@
       </c>
       <c r="E129" s="5" t="inlineStr">
         <is>
-          <t>2.40Y+N</t>
+          <t>2.72Y</t>
         </is>
       </c>
       <c r="F129" s="5" t="inlineStr">
         <is>
-          <t>19电建Y1</t>
+          <t>20信投G1</t>
         </is>
       </c>
       <c r="G129" s="5" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="H129" s="6" t="inlineStr">
@@ -6129,17 +6129,17 @@
     <row r="130">
       <c r="A130" s="3" t="inlineStr">
         <is>
-          <t>1.08Y</t>
+          <t>1.65Y</t>
         </is>
       </c>
       <c r="B130" s="4" t="inlineStr">
         <is>
-          <t>16光控02</t>
+          <t>G17龙湖1</t>
         </is>
       </c>
       <c r="C130" s="4" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="D130" s="4" t="inlineStr">
@@ -6149,17 +6149,17 @@
       </c>
       <c r="E130" s="5" t="inlineStr">
         <is>
-          <t>2.40Y+N</t>
+          <t>2.72Y</t>
         </is>
       </c>
       <c r="F130" s="5" t="inlineStr">
         <is>
-          <t>19电建Y1</t>
+          <t>13京投债</t>
         </is>
       </c>
       <c r="G130" s="5" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="H130" s="6" t="inlineStr">
@@ -6171,17 +6171,17 @@
     <row r="131">
       <c r="A131" s="3" t="inlineStr">
         <is>
-          <t>1.08Y</t>
+          <t>1.66Y</t>
         </is>
       </c>
       <c r="B131" s="4" t="inlineStr">
         <is>
-          <t>16光控02</t>
+          <t>19蓝星02</t>
         </is>
       </c>
       <c r="C131" s="4" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="D131" s="4" t="inlineStr">
@@ -6191,17 +6191,17 @@
       </c>
       <c r="E131" s="5" t="inlineStr">
         <is>
-          <t>2.40Y+N</t>
+          <t>2.72Y</t>
         </is>
       </c>
       <c r="F131" s="5" t="inlineStr">
         <is>
-          <t>19电建Y1</t>
+          <t>20信投G1</t>
         </is>
       </c>
       <c r="G131" s="5" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="H131" s="6" t="inlineStr">
@@ -6213,17 +6213,17 @@
     <row r="132">
       <c r="A132" s="3" t="inlineStr">
         <is>
-          <t>1.08Y</t>
+          <t>1.7Y</t>
         </is>
       </c>
       <c r="B132" s="4" t="inlineStr">
         <is>
-          <t>16光控02</t>
+          <t>16龙湖03</t>
         </is>
       </c>
       <c r="C132" s="4" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="D132" s="4" t="inlineStr">
@@ -6233,17 +6233,17 @@
       </c>
       <c r="E132" s="5" t="inlineStr">
         <is>
-          <t>2.43Y(休1)</t>
+          <t>2.72Y</t>
         </is>
       </c>
       <c r="F132" s="5" t="inlineStr">
         <is>
-          <t>19交通银行01</t>
+          <t>13京投债</t>
         </is>
       </c>
       <c r="G132" s="5" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="H132" s="6" t="inlineStr">
@@ -6255,17 +6255,17 @@
     <row r="133">
       <c r="A133" s="3" t="inlineStr">
         <is>
-          <t>1.08Y</t>
+          <t>1.7Y</t>
         </is>
       </c>
       <c r="B133" s="4" t="inlineStr">
         <is>
-          <t>16光控02</t>
+          <t>16龙湖03</t>
         </is>
       </c>
       <c r="C133" s="4" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="D133" s="4" t="inlineStr">
@@ -6275,17 +6275,17 @@
       </c>
       <c r="E133" s="5" t="inlineStr">
         <is>
-          <t>2.43Y</t>
+          <t>2.73Y</t>
         </is>
       </c>
       <c r="F133" s="5" t="inlineStr">
         <is>
-          <t>17铁道18</t>
+          <t>20北京银行小微债01</t>
         </is>
       </c>
       <c r="G133" s="5" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="H133" s="6" t="inlineStr">
@@ -6297,17 +6297,17 @@
     <row r="134">
       <c r="A134" s="3" t="inlineStr">
         <is>
-          <t>1.1Y+2Y</t>
+          <t>1.71Y</t>
         </is>
       </c>
       <c r="B134" s="4" t="inlineStr">
         <is>
-          <t>16水务02</t>
+          <t>19徽商银行01</t>
         </is>
       </c>
       <c r="C134" s="4" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="D134" s="4" t="inlineStr">
@@ -6317,17 +6317,17 @@
       </c>
       <c r="E134" s="5" t="inlineStr">
         <is>
-          <t>2.56Y</t>
+          <t>2.73Y</t>
         </is>
       </c>
       <c r="F134" s="5" t="inlineStr">
         <is>
-          <t>20东方01</t>
+          <t>20北京银行小微债01</t>
         </is>
       </c>
       <c r="G134" s="5" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="H134" s="6" t="inlineStr">
@@ -6339,17 +6339,17 @@
     <row r="135">
       <c r="A135" s="3" t="inlineStr">
         <is>
-          <t>1.10Y+2Y</t>
+          <t>1.71Y</t>
         </is>
       </c>
       <c r="B135" s="4" t="inlineStr">
         <is>
-          <t>18张江02</t>
+          <t>20宁证01</t>
         </is>
       </c>
       <c r="C135" s="4" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="D135" s="4" t="inlineStr">
@@ -6359,17 +6359,17 @@
       </c>
       <c r="E135" s="5" t="inlineStr">
         <is>
-          <t>2.56Y</t>
+          <t>2.73Y</t>
         </is>
       </c>
       <c r="F135" s="5" t="inlineStr">
         <is>
-          <t>20东方01</t>
+          <t>20北京银行小微债01</t>
         </is>
       </c>
       <c r="G135" s="5" t="inlineStr">
         <is>
-          <t>20东方01</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="H135" s="6" t="inlineStr">
@@ -6381,17 +6381,17 @@
     <row r="136">
       <c r="A136" s="3" t="inlineStr">
         <is>
-          <t>1.1Y+2Y</t>
+          <t>1.71Y</t>
         </is>
       </c>
       <c r="B136" s="4" t="inlineStr">
         <is>
-          <t>16水务02</t>
+          <t>20宁证01</t>
         </is>
       </c>
       <c r="C136" s="4" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="D136" s="4" t="inlineStr">
@@ -6401,17 +6401,17 @@
       </c>
       <c r="E136" s="5" t="inlineStr">
         <is>
-          <t>2.58Y+2Y</t>
+          <t>2.73Y</t>
         </is>
       </c>
       <c r="F136" s="5" t="inlineStr">
         <is>
-          <t>20中证01</t>
+          <t>20北京银行小微债01</t>
         </is>
       </c>
       <c r="G136" s="5" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="H136" s="6" t="inlineStr">
@@ -6423,17 +6423,17 @@
     <row r="137">
       <c r="A137" s="3" t="inlineStr">
         <is>
-          <t>1.1Y+2Y</t>
+          <t>1.71Y</t>
         </is>
       </c>
       <c r="B137" s="4" t="inlineStr">
         <is>
-          <t>16水务02</t>
+          <t>20宁证01</t>
         </is>
       </c>
       <c r="C137" s="4" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="D137" s="4" t="inlineStr">
@@ -6443,39 +6443,39 @@
       </c>
       <c r="E137" s="5" t="inlineStr">
         <is>
-          <t>2.6Y(休2)</t>
+          <t>2.73Y</t>
         </is>
       </c>
       <c r="F137" s="5" t="inlineStr">
         <is>
-          <t>PR雨花债</t>
+          <t>20北京银行小微债01</t>
         </is>
       </c>
       <c r="G137" s="5" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="H137" s="6" t="inlineStr">
         <is>
-          <t>AA+/AAA</t>
+          <t>AAA</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="3" t="inlineStr">
         <is>
-          <t>1.1Y+2Y</t>
+          <t>1.71Y</t>
         </is>
       </c>
       <c r="B138" s="4" t="inlineStr">
         <is>
-          <t>16水务02</t>
+          <t>20宁证01</t>
         </is>
       </c>
       <c r="C138" s="4" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="D138" s="4" t="inlineStr">
@@ -6485,17 +6485,17 @@
       </c>
       <c r="E138" s="5" t="inlineStr">
         <is>
-          <t>2.68Y+NY(休1)</t>
+          <t>2.75Y+2Y</t>
         </is>
       </c>
       <c r="F138" s="5" t="inlineStr">
         <is>
-          <t>20厦贸Y1</t>
+          <t>20世茂02</t>
         </is>
       </c>
       <c r="G138" s="5" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="H138" s="6" t="inlineStr">
@@ -6507,37 +6507,37 @@
     <row r="139">
       <c r="A139" s="3" t="inlineStr">
         <is>
-          <t>1.15Y</t>
+          <t>1.72Y</t>
         </is>
       </c>
       <c r="B139" s="4" t="inlineStr">
         <is>
-          <t>18盛京银行01</t>
+          <t>19中航G1</t>
         </is>
       </c>
       <c r="C139" s="4" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="D139" s="4" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>AA+/AAA</t>
         </is>
       </c>
       <c r="E139" s="5" t="inlineStr">
         <is>
-          <t>2.7Y</t>
+          <t>2.76Y</t>
         </is>
       </c>
       <c r="F139" s="5" t="inlineStr">
         <is>
-          <t>20宁波银行小微债01</t>
+          <t>20北湾银行小微债01</t>
         </is>
       </c>
       <c r="G139" s="5" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H139" s="6" t="inlineStr">
@@ -6549,17 +6549,17 @@
     <row r="140">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>1.18Y</t>
+          <t>1.74Y</t>
         </is>
       </c>
       <c r="B140" s="4" t="inlineStr">
         <is>
-          <t>18浙商银行01</t>
+          <t>19世茂G2</t>
         </is>
       </c>
       <c r="C140" s="4" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="D140" s="4" t="inlineStr">
@@ -6569,17 +6569,17 @@
       </c>
       <c r="E140" s="5" t="inlineStr">
         <is>
-          <t>2.7Y</t>
+          <t>2.76Y</t>
         </is>
       </c>
       <c r="F140" s="5" t="inlineStr">
         <is>
-          <t>20浙商银行小微债01</t>
+          <t>20华泰G1</t>
         </is>
       </c>
       <c r="G140" s="5" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="H140" s="6" t="inlineStr">
@@ -6591,17 +6591,17 @@
     <row r="141">
       <c r="A141" s="3" t="inlineStr">
         <is>
-          <t>1.19Y</t>
+          <t>1.74Y+2Y</t>
         </is>
       </c>
       <c r="B141" s="4" t="inlineStr">
         <is>
-          <t>18贵阳银行绿色金融01</t>
+          <t>19阳煤01</t>
         </is>
       </c>
       <c r="C141" s="4" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="D141" s="4" t="inlineStr">
@@ -6611,17 +6611,17 @@
       </c>
       <c r="E141" s="5" t="inlineStr">
         <is>
-          <t>2.7Y</t>
+          <t>2.76Y</t>
         </is>
       </c>
       <c r="F141" s="5" t="inlineStr">
         <is>
-          <t>20浙商银行小微债01</t>
+          <t>20华泰G1</t>
         </is>
       </c>
       <c r="G141" s="5" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="H141" s="6" t="inlineStr">
@@ -6633,17 +6633,17 @@
     <row r="142">
       <c r="A142" s="3" t="inlineStr">
         <is>
-          <t>1.24Y+2Y</t>
+          <t>1.74Y+2Y</t>
         </is>
       </c>
       <c r="B142" s="4" t="inlineStr">
         <is>
-          <t>18杭城01</t>
+          <t>19阳煤01</t>
         </is>
       </c>
       <c r="C142" s="4" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>3.30行权</t>
         </is>
       </c>
       <c r="D142" s="4" t="inlineStr">
@@ -6653,17 +6653,17 @@
       </c>
       <c r="E142" s="5" t="inlineStr">
         <is>
-          <t>2.70Y</t>
+          <t>2.76Y(休1)</t>
         </is>
       </c>
       <c r="F142" s="5" t="inlineStr">
         <is>
-          <t>20宝钢01</t>
+          <t>20华泰G1</t>
         </is>
       </c>
       <c r="G142" s="5" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="H142" s="6" t="inlineStr">
@@ -6675,17 +6675,17 @@
     <row r="143">
       <c r="A143" s="3" t="inlineStr">
         <is>
-          <t>1.24Y+2Y</t>
+          <t>1.75Y+2Y</t>
         </is>
       </c>
       <c r="B143" s="4" t="inlineStr">
         <is>
-          <t>18通用01</t>
+          <t>19国新01</t>
         </is>
       </c>
       <c r="C143" s="4" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="D143" s="4" t="inlineStr">
@@ -6695,17 +6695,17 @@
       </c>
       <c r="E143" s="5" t="inlineStr">
         <is>
-          <t>2.7Y</t>
+          <t>2.79Y</t>
         </is>
       </c>
       <c r="F143" s="5" t="inlineStr">
         <is>
-          <t>20浙商银行小微债01</t>
+          <t>20招联消费金融债03</t>
         </is>
       </c>
       <c r="G143" s="5" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H143" s="6" t="inlineStr">
@@ -6717,17 +6717,17 @@
     <row r="144">
       <c r="A144" s="3" t="inlineStr">
         <is>
-          <t>1.31Y</t>
+          <t>1.81Y</t>
         </is>
       </c>
       <c r="B144" s="4" t="inlineStr">
         <is>
-          <t>16余城建</t>
+          <t>17川投01</t>
         </is>
       </c>
       <c r="C144" s="4" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="D144" s="4" t="inlineStr">
@@ -6737,17 +6737,17 @@
       </c>
       <c r="E144" s="5" t="inlineStr">
         <is>
-          <t>2.7Y</t>
+          <t>2.81Y</t>
         </is>
       </c>
       <c r="F144" s="5" t="inlineStr">
         <is>
-          <t>20浙商银行小微债01</t>
+          <t>20光明01</t>
         </is>
       </c>
       <c r="G144" s="5" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="H144" s="6" t="inlineStr">
@@ -6759,17 +6759,17 @@
     <row r="145">
       <c r="A145" s="3" t="inlineStr">
         <is>
-          <t>1.32Y</t>
+          <t>1.81Y</t>
         </is>
       </c>
       <c r="B145" s="4" t="inlineStr">
         <is>
-          <t>18航技04</t>
+          <t>17川投01</t>
         </is>
       </c>
       <c r="C145" s="4" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="D145" s="4" t="inlineStr">
@@ -6779,17 +6779,17 @@
       </c>
       <c r="E145" s="5" t="inlineStr">
         <is>
-          <t>2.72Y</t>
+          <t>2.81Y</t>
         </is>
       </c>
       <c r="F145" s="5" t="inlineStr">
         <is>
-          <t>20信投G1</t>
+          <t>18杭金02</t>
         </is>
       </c>
       <c r="G145" s="5" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="H145" s="6" t="inlineStr">
@@ -6801,17 +6801,17 @@
     <row r="146">
       <c r="A146" s="3" t="inlineStr">
         <is>
-          <t>1.33Y</t>
+          <t>1.81Y</t>
         </is>
       </c>
       <c r="B146" s="4" t="inlineStr">
         <is>
-          <t>16兴业03</t>
+          <t>17川投01</t>
         </is>
       </c>
       <c r="C146" s="4" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="D146" s="4" t="inlineStr">
@@ -6821,17 +6821,17 @@
       </c>
       <c r="E146" s="5" t="inlineStr">
         <is>
-          <t>2.72Y(休2)</t>
+          <t>2.81Y</t>
         </is>
       </c>
       <c r="F146" s="5" t="inlineStr">
         <is>
-          <t>20信投G1</t>
+          <t>20京投01</t>
         </is>
       </c>
       <c r="G146" s="5" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="H146" s="6" t="inlineStr">
@@ -6843,17 +6843,17 @@
     <row r="147">
       <c r="A147" s="3" t="inlineStr">
         <is>
-          <t>1.33Y+3Y</t>
+          <t>1.81Y</t>
         </is>
       </c>
       <c r="B147" s="4" t="inlineStr">
         <is>
-          <t>18中海01</t>
+          <t>17川投01</t>
         </is>
       </c>
       <c r="C147" s="4" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="D147" s="4" t="inlineStr">
@@ -6863,17 +6863,17 @@
       </c>
       <c r="E147" s="5" t="inlineStr">
         <is>
-          <t>2.72Y</t>
+          <t>2.81Y</t>
         </is>
       </c>
       <c r="F147" s="5" t="inlineStr">
         <is>
-          <t>20信投G1</t>
+          <t>20京投01</t>
         </is>
       </c>
       <c r="G147" s="5" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="H147" s="6" t="inlineStr">
@@ -6885,17 +6885,17 @@
     <row r="148">
       <c r="A148" s="3" t="inlineStr">
         <is>
-          <t>1.34Y+2Y</t>
+          <t>1.81Y</t>
         </is>
       </c>
       <c r="B148" s="4" t="inlineStr">
         <is>
-          <t>16中金04</t>
+          <t>17川投01</t>
         </is>
       </c>
       <c r="C148" s="4" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="D148" s="4" t="inlineStr">
@@ -6905,17 +6905,17 @@
       </c>
       <c r="E148" s="5" t="inlineStr">
         <is>
-          <t>2.72Y</t>
+          <t>2.81Y</t>
         </is>
       </c>
       <c r="F148" s="5" t="inlineStr">
         <is>
-          <t>20信投G1</t>
+          <t>20宁波银行01</t>
         </is>
       </c>
       <c r="G148" s="5" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="H148" s="6" t="inlineStr">
@@ -6927,17 +6927,17 @@
     <row r="149">
       <c r="A149" s="3" t="inlineStr">
         <is>
-          <t>1.38Y</t>
+          <t>1.81Y</t>
         </is>
       </c>
       <c r="B149" s="4" t="inlineStr">
         <is>
-          <t>18光大01</t>
+          <t>17川投01</t>
         </is>
       </c>
       <c r="C149" s="4" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="D149" s="4" t="inlineStr">
@@ -6947,17 +6947,17 @@
       </c>
       <c r="E149" s="5" t="inlineStr">
         <is>
-          <t>2.72Y</t>
+          <t>2.81Y</t>
         </is>
       </c>
       <c r="F149" s="5" t="inlineStr">
         <is>
-          <t>13京投债</t>
+          <t>20宁波银行01</t>
         </is>
       </c>
       <c r="G149" s="5" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="H149" s="6" t="inlineStr">
@@ -6969,17 +6969,17 @@
     <row r="150">
       <c r="A150" s="3" t="inlineStr">
         <is>
-          <t>1.39Y</t>
+          <t>1.83Y</t>
         </is>
       </c>
       <c r="B150" s="4" t="inlineStr">
         <is>
-          <t>19华电06</t>
+          <t>19江苏银行绿色金融01</t>
         </is>
       </c>
       <c r="C150" s="4" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="D150" s="4" t="inlineStr">
@@ -6989,17 +6989,17 @@
       </c>
       <c r="E150" s="5" t="inlineStr">
         <is>
-          <t>2.72Y</t>
+          <t>2.81Y</t>
         </is>
       </c>
       <c r="F150" s="5" t="inlineStr">
         <is>
-          <t>13京投债</t>
+          <t>18杭金02</t>
         </is>
       </c>
       <c r="G150" s="5" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="H150" s="6" t="inlineStr">
@@ -7011,17 +7011,17 @@
     <row r="151">
       <c r="A151" s="3" t="inlineStr">
         <is>
-          <t>1.39Y</t>
+          <t>1.84Y</t>
         </is>
       </c>
       <c r="B151" s="4" t="inlineStr">
         <is>
-          <t>19华电06</t>
+          <t>19中投C1</t>
         </is>
       </c>
       <c r="C151" s="4" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="D151" s="4" t="inlineStr">
@@ -7031,17 +7031,17 @@
       </c>
       <c r="E151" s="5" t="inlineStr">
         <is>
-          <t>2.72Y</t>
+          <t>2.81Y</t>
         </is>
       </c>
       <c r="F151" s="5" t="inlineStr">
         <is>
-          <t>13京投债</t>
+          <t>20光明01</t>
         </is>
       </c>
       <c r="G151" s="5" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="H151" s="6" t="inlineStr">
@@ -7053,17 +7053,17 @@
     <row r="152">
       <c r="A152" s="3" t="inlineStr">
         <is>
-          <t>1.39Y</t>
+          <t>1.84Y+2Y</t>
         </is>
       </c>
       <c r="B152" s="4" t="inlineStr">
         <is>
-          <t>19华电06</t>
+          <t>19潞安01</t>
         </is>
       </c>
       <c r="C152" s="4" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D152" s="4" t="inlineStr">
@@ -7073,12 +7073,12 @@
       </c>
       <c r="E152" s="5" t="inlineStr">
         <is>
-          <t>2.72Y</t>
+          <t>2.81Y</t>
         </is>
       </c>
       <c r="F152" s="5" t="inlineStr">
         <is>
-          <t>13京投债</t>
+          <t>20京投01</t>
         </is>
       </c>
       <c r="G152" s="5" t="inlineStr">
@@ -7095,17 +7095,17 @@
     <row r="153">
       <c r="A153" s="3" t="inlineStr">
         <is>
-          <t>1.48Y</t>
+          <t>1.84Y+2Y</t>
         </is>
       </c>
       <c r="B153" s="4" t="inlineStr">
         <is>
-          <t>18民生银行02</t>
+          <t>19潞安01</t>
         </is>
       </c>
       <c r="C153" s="4" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="D153" s="4" t="inlineStr">
@@ -7115,17 +7115,17 @@
       </c>
       <c r="E153" s="5" t="inlineStr">
         <is>
-          <t>2.72Y</t>
+          <t>2.81Y</t>
         </is>
       </c>
       <c r="F153" s="5" t="inlineStr">
         <is>
-          <t>20信投G1</t>
+          <t>18杭金02</t>
         </is>
       </c>
       <c r="G153" s="5" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="H153" s="6" t="inlineStr">
@@ -7137,17 +7137,17 @@
     <row r="154">
       <c r="A154" s="3" t="inlineStr">
         <is>
-          <t>1.65Y</t>
+          <t>1.95Y+2Y</t>
         </is>
       </c>
       <c r="B154" s="4" t="inlineStr">
         <is>
-          <t>G17龙湖1</t>
+          <t>19融和02</t>
         </is>
       </c>
       <c r="C154" s="4" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="D154" s="4" t="inlineStr">
@@ -7157,12 +7157,12 @@
       </c>
       <c r="E154" s="5" t="inlineStr">
         <is>
-          <t>2.72Y</t>
+          <t>2.81Y</t>
         </is>
       </c>
       <c r="F154" s="5" t="inlineStr">
         <is>
-          <t>13京投债</t>
+          <t>20京投01</t>
         </is>
       </c>
       <c r="G154" s="5" t="inlineStr">
@@ -7179,17 +7179,17 @@
     <row r="155">
       <c r="A155" s="3" t="inlineStr">
         <is>
-          <t>1.66Y</t>
+          <t>1.95Y+2Y</t>
         </is>
       </c>
       <c r="B155" s="4" t="inlineStr">
         <is>
-          <t>19蓝星02</t>
+          <t>19齐鲁01</t>
         </is>
       </c>
       <c r="C155" s="4" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="D155" s="4" t="inlineStr">
@@ -7199,17 +7199,17 @@
       </c>
       <c r="E155" s="5" t="inlineStr">
         <is>
-          <t>2.72Y</t>
+          <t>2.81Y</t>
         </is>
       </c>
       <c r="F155" s="5" t="inlineStr">
         <is>
-          <t>20信投G1</t>
+          <t>18杭金02</t>
         </is>
       </c>
       <c r="G155" s="5" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="H155" s="6" t="inlineStr">
@@ -7221,17 +7221,17 @@
     <row r="156">
       <c r="A156" s="3" t="inlineStr">
         <is>
-          <t>1.7Y</t>
+          <t>2.11Y</t>
         </is>
       </c>
       <c r="B156" s="4" t="inlineStr">
         <is>
-          <t>16龙湖03</t>
+          <t>12铁道03</t>
         </is>
       </c>
       <c r="C156" s="4" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="D156" s="4" t="inlineStr">
@@ -7241,17 +7241,17 @@
       </c>
       <c r="E156" s="5" t="inlineStr">
         <is>
-          <t>2.72Y</t>
+          <t>2.81Y</t>
         </is>
       </c>
       <c r="F156" s="5" t="inlineStr">
         <is>
-          <t>13京投债</t>
+          <t>20光明01</t>
         </is>
       </c>
       <c r="G156" s="5" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="H156" s="6" t="inlineStr">
@@ -7263,17 +7263,17 @@
     <row r="157">
       <c r="A157" s="3" t="inlineStr">
         <is>
-          <t>1.7Y</t>
+          <t>2.18Y+2Y</t>
         </is>
       </c>
       <c r="B157" s="4" t="inlineStr">
         <is>
-          <t>16龙湖03</t>
+          <t>19老窖01</t>
         </is>
       </c>
       <c r="C157" s="4" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="D157" s="4" t="inlineStr">
@@ -7283,17 +7283,17 @@
       </c>
       <c r="E157" s="5" t="inlineStr">
         <is>
-          <t>2.73Y</t>
+          <t>2.81Y</t>
         </is>
       </c>
       <c r="F157" s="5" t="inlineStr">
         <is>
-          <t>20北京银行小微债01</t>
+          <t>20光明01</t>
         </is>
       </c>
       <c r="G157" s="5" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="H157" s="6" t="inlineStr">
@@ -7305,17 +7305,17 @@
     <row r="158">
       <c r="A158" s="3" t="inlineStr">
         <is>
-          <t>1.71Y</t>
+          <t>2.21Y</t>
         </is>
       </c>
       <c r="B158" s="4" t="inlineStr">
         <is>
-          <t>19徽商银行01</t>
+          <t>G17发展1</t>
         </is>
       </c>
       <c r="C158" s="4" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="D158" s="4" t="inlineStr">
@@ -7325,17 +7325,17 @@
       </c>
       <c r="E158" s="5" t="inlineStr">
         <is>
-          <t>2.73Y</t>
+          <t>2.82Y</t>
         </is>
       </c>
       <c r="F158" s="5" t="inlineStr">
         <is>
-          <t>20北京银行小微债01</t>
+          <t>18中金C1</t>
         </is>
       </c>
       <c r="G158" s="5" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="H158" s="6" t="inlineStr">
@@ -7347,17 +7347,17 @@
     <row r="159">
       <c r="A159" s="3" t="inlineStr">
         <is>
-          <t>1.71Y</t>
+          <t>2.26Y</t>
         </is>
       </c>
       <c r="B159" s="4" t="inlineStr">
         <is>
-          <t>20宁证01</t>
+          <t>19招商银行小微债02</t>
         </is>
       </c>
       <c r="C159" s="4" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="D159" s="4" t="inlineStr">
@@ -7367,17 +7367,17 @@
       </c>
       <c r="E159" s="5" t="inlineStr">
         <is>
-          <t>2.73Y</t>
+          <t>2.82Y</t>
         </is>
       </c>
       <c r="F159" s="5" t="inlineStr">
         <is>
-          <t>20北京银行小微债01</t>
+          <t>20中化01</t>
         </is>
       </c>
       <c r="G159" s="5" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="H159" s="6" t="inlineStr">
@@ -7389,17 +7389,17 @@
     <row r="160">
       <c r="A160" s="3" t="inlineStr">
         <is>
-          <t>1.71Y</t>
+          <t>2.26Y</t>
         </is>
       </c>
       <c r="B160" s="4" t="inlineStr">
         <is>
-          <t>20宁证01</t>
+          <t>19招商银行小微债02</t>
         </is>
       </c>
       <c r="C160" s="4" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="D160" s="4" t="inlineStr">
@@ -7409,17 +7409,17 @@
       </c>
       <c r="E160" s="5" t="inlineStr">
         <is>
-          <t>2.73Y</t>
+          <t>2.82Y</t>
         </is>
       </c>
       <c r="F160" s="5" t="inlineStr">
         <is>
-          <t>20北京银行小微债01</t>
+          <t>20中化01</t>
         </is>
       </c>
       <c r="G160" s="5" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="H160" s="6" t="inlineStr">
@@ -7431,17 +7431,17 @@
     <row r="161">
       <c r="A161" s="3" t="inlineStr">
         <is>
-          <t>1.71Y</t>
+          <t>2.31Y+2Y</t>
         </is>
       </c>
       <c r="B161" s="4" t="inlineStr">
         <is>
-          <t>20宁证01</t>
+          <t>19常城04</t>
         </is>
       </c>
       <c r="C161" s="4" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D161" s="4" t="inlineStr">
@@ -7451,17 +7451,17 @@
       </c>
       <c r="E161" s="5" t="inlineStr">
         <is>
-          <t>2.73Y</t>
+          <t>2.82Y</t>
         </is>
       </c>
       <c r="F161" s="5" t="inlineStr">
         <is>
-          <t>20北京银行小微债01</t>
+          <t>20华宝01</t>
         </is>
       </c>
       <c r="G161" s="5" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="H161" s="6" t="inlineStr">
@@ -7473,17 +7473,17 @@
     <row r="162">
       <c r="A162" s="3" t="inlineStr">
         <is>
-          <t>1.71Y</t>
+          <t>2.40Y+N</t>
         </is>
       </c>
       <c r="B162" s="4" t="inlineStr">
         <is>
-          <t>20宁证01</t>
+          <t>19电建Y1</t>
         </is>
       </c>
       <c r="C162" s="4" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="D162" s="4" t="inlineStr">
@@ -7493,17 +7493,17 @@
       </c>
       <c r="E162" s="5" t="inlineStr">
         <is>
-          <t>2.75Y+2Y</t>
+          <t>2.83Y</t>
         </is>
       </c>
       <c r="F162" s="5" t="inlineStr">
         <is>
-          <t>20世茂02</t>
+          <t>20鲁高01</t>
         </is>
       </c>
       <c r="G162" s="5" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="H162" s="6" t="inlineStr">
@@ -7515,37 +7515,37 @@
     <row r="163">
       <c r="A163" s="3" t="inlineStr">
         <is>
-          <t>1.72Y</t>
+          <t>2.40Y+N</t>
         </is>
       </c>
       <c r="B163" s="4" t="inlineStr">
         <is>
-          <t>19中航G1</t>
+          <t>19电建Y1</t>
         </is>
       </c>
       <c r="C163" s="4" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="D163" s="4" t="inlineStr">
         <is>
-          <t>AA+/AAA</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="E163" s="5" t="inlineStr">
         <is>
-          <t>2.76Y</t>
+          <t>2.83Y</t>
         </is>
       </c>
       <c r="F163" s="5" t="inlineStr">
         <is>
-          <t>20北湾银行小微债01</t>
+          <t>20鲁高01</t>
         </is>
       </c>
       <c r="G163" s="5" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="H163" s="6" t="inlineStr">
@@ -7557,17 +7557,17 @@
     <row r="164">
       <c r="A164" s="3" t="inlineStr">
         <is>
-          <t>1.74Y</t>
+          <t>2.40Y+N</t>
         </is>
       </c>
       <c r="B164" s="4" t="inlineStr">
         <is>
-          <t>19世茂G2</t>
+          <t>19电建Y1</t>
         </is>
       </c>
       <c r="C164" s="4" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="D164" s="4" t="inlineStr">
@@ -7577,17 +7577,17 @@
       </c>
       <c r="E164" s="5" t="inlineStr">
         <is>
-          <t>2.76Y</t>
+          <t>2.83Y</t>
         </is>
       </c>
       <c r="F164" s="5" t="inlineStr">
         <is>
-          <t>20华泰G1</t>
+          <t>20鲁高01</t>
         </is>
       </c>
       <c r="G164" s="5" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="H164" s="6" t="inlineStr">
@@ -7599,17 +7599,17 @@
     <row r="165">
       <c r="A165" s="3" t="inlineStr">
         <is>
-          <t>1.74Y+2Y</t>
+          <t>2.40Y+N</t>
         </is>
       </c>
       <c r="B165" s="4" t="inlineStr">
         <is>
-          <t>19阳煤01</t>
+          <t>19电建Y1</t>
         </is>
       </c>
       <c r="C165" s="4" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="D165" s="4" t="inlineStr">
@@ -7619,17 +7619,17 @@
       </c>
       <c r="E165" s="5" t="inlineStr">
         <is>
-          <t>2.76Y</t>
+          <t>2.84Y</t>
         </is>
       </c>
       <c r="F165" s="5" t="inlineStr">
         <is>
-          <t>20华泰G1</t>
+          <t>20一汽01</t>
         </is>
       </c>
       <c r="G165" s="5" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="H165" s="6" t="inlineStr">
@@ -7641,17 +7641,17 @@
     <row r="166">
       <c r="A166" s="3" t="inlineStr">
         <is>
-          <t>1.74Y+2Y</t>
+          <t>2.40Y+N</t>
         </is>
       </c>
       <c r="B166" s="4" t="inlineStr">
         <is>
-          <t>19阳煤01</t>
+          <t>19电建Y1</t>
         </is>
       </c>
       <c r="C166" s="4" t="inlineStr">
         <is>
-          <t>3.30行权</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="D166" s="4" t="inlineStr">
@@ -7661,17 +7661,17 @@
       </c>
       <c r="E166" s="5" t="inlineStr">
         <is>
-          <t>2.76Y(休1)</t>
+          <t>2.84Y</t>
         </is>
       </c>
       <c r="F166" s="5" t="inlineStr">
         <is>
-          <t>20华泰G1</t>
+          <t>20云投G1</t>
         </is>
       </c>
       <c r="G166" s="5" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="H166" s="6" t="inlineStr">
@@ -7683,17 +7683,17 @@
     <row r="167">
       <c r="A167" s="3" t="inlineStr">
         <is>
-          <t>1.75Y+2Y</t>
+          <t>2.40Y+N</t>
         </is>
       </c>
       <c r="B167" s="4" t="inlineStr">
         <is>
-          <t>19国新01</t>
+          <t>19电建Y1</t>
         </is>
       </c>
       <c r="C167" s="4" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="D167" s="4" t="inlineStr">
@@ -7703,17 +7703,17 @@
       </c>
       <c r="E167" s="5" t="inlineStr">
         <is>
-          <t>2.79Y</t>
+          <t>2.84Y</t>
         </is>
       </c>
       <c r="F167" s="5" t="inlineStr">
         <is>
-          <t>20招联消费金融债03</t>
+          <t>20一汽01</t>
         </is>
       </c>
       <c r="G167" s="5" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="H167" s="6" t="inlineStr">
@@ -7725,17 +7725,17 @@
     <row r="168">
       <c r="A168" s="3" t="inlineStr">
         <is>
-          <t>1.81Y</t>
+          <t>2.43Y(休1)</t>
         </is>
       </c>
       <c r="B168" s="4" t="inlineStr">
         <is>
-          <t>17川投01</t>
+          <t>19交通银行01</t>
         </is>
       </c>
       <c r="C168" s="4" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="D168" s="4" t="inlineStr">
@@ -7745,12 +7745,12 @@
       </c>
       <c r="E168" s="5" t="inlineStr">
         <is>
-          <t>2.81Y</t>
+          <t>2.84Y</t>
         </is>
       </c>
       <c r="F168" s="5" t="inlineStr">
         <is>
-          <t>20光明01</t>
+          <t>20一汽01</t>
         </is>
       </c>
       <c r="G168" s="5" t="inlineStr">
@@ -7767,37 +7767,37 @@
     <row r="169">
       <c r="A169" s="3" t="inlineStr">
         <is>
-          <t>1.81Y</t>
+          <t>2.43Y</t>
         </is>
       </c>
       <c r="B169" s="4" t="inlineStr">
         <is>
-          <t>17川投01</t>
+          <t>17铁道18</t>
         </is>
       </c>
       <c r="C169" s="4" t="inlineStr">
         <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="D169" s="4" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="E169" s="5" t="inlineStr">
+        <is>
+          <t>2.85Y</t>
+        </is>
+      </c>
+      <c r="F169" s="5" t="inlineStr">
+        <is>
+          <t>20浦发银行01</t>
+        </is>
+      </c>
+      <c r="G169" s="5" t="inlineStr">
+        <is>
           <t>3.12</t>
-        </is>
-      </c>
-      <c r="D169" s="4" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
-      <c r="E169" s="5" t="inlineStr">
-        <is>
-          <t>2.81Y</t>
-        </is>
-      </c>
-      <c r="F169" s="5" t="inlineStr">
-        <is>
-          <t>18杭金02</t>
-        </is>
-      </c>
-      <c r="G169" s="5" t="inlineStr">
-        <is>
-          <t>3.4</t>
         </is>
       </c>
       <c r="H169" s="6" t="inlineStr">
@@ -7809,17 +7809,17 @@
     <row r="170">
       <c r="A170" s="3" t="inlineStr">
         <is>
-          <t>1.81Y</t>
+          <t>2.56Y</t>
         </is>
       </c>
       <c r="B170" s="4" t="inlineStr">
         <is>
-          <t>17川投01</t>
+          <t>20东方01</t>
         </is>
       </c>
       <c r="C170" s="4" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="D170" s="4" t="inlineStr">
@@ -7829,17 +7829,17 @@
       </c>
       <c r="E170" s="5" t="inlineStr">
         <is>
-          <t>2.81Y</t>
+          <t>2.85Y</t>
         </is>
       </c>
       <c r="F170" s="5" t="inlineStr">
         <is>
-          <t>20京投01</t>
+          <t>20中船03</t>
         </is>
       </c>
       <c r="G170" s="5" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="H170" s="6" t="inlineStr">
@@ -7851,17 +7851,17 @@
     <row r="171">
       <c r="A171" s="3" t="inlineStr">
         <is>
-          <t>1.81Y</t>
+          <t>2.56Y</t>
         </is>
       </c>
       <c r="B171" s="4" t="inlineStr">
         <is>
-          <t>17川投01</t>
+          <t>20东方01</t>
         </is>
       </c>
       <c r="C171" s="4" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="D171" s="4" t="inlineStr">
@@ -7871,17 +7871,17 @@
       </c>
       <c r="E171" s="5" t="inlineStr">
         <is>
-          <t>2.81Y</t>
+          <t>2.85Y</t>
         </is>
       </c>
       <c r="F171" s="5" t="inlineStr">
         <is>
-          <t>20京投01</t>
+          <t>20深地铁债02</t>
         </is>
       </c>
       <c r="G171" s="5" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="H171" s="6" t="inlineStr">
@@ -7893,17 +7893,17 @@
     <row r="172">
       <c r="A172" s="3" t="inlineStr">
         <is>
-          <t>1.81Y</t>
+          <t>2.58Y+2Y</t>
         </is>
       </c>
       <c r="B172" s="4" t="inlineStr">
         <is>
-          <t>17川投01</t>
+          <t>20中证01</t>
         </is>
       </c>
       <c r="C172" s="4" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="D172" s="4" t="inlineStr">
@@ -7913,17 +7913,17 @@
       </c>
       <c r="E172" s="5" t="inlineStr">
         <is>
-          <t>2.81Y</t>
+          <t>2.85Y</t>
         </is>
       </c>
       <c r="F172" s="5" t="inlineStr">
         <is>
-          <t>20宁波银行01</t>
+          <t>20中船03</t>
         </is>
       </c>
       <c r="G172" s="5" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="H172" s="6" t="inlineStr">
@@ -7935,32 +7935,32 @@
     <row r="173">
       <c r="A173" s="3" t="inlineStr">
         <is>
-          <t>1.81Y</t>
+          <t>2.6Y(休2)</t>
         </is>
       </c>
       <c r="B173" s="4" t="inlineStr">
         <is>
-          <t>17川投01</t>
+          <t>PR雨花债</t>
         </is>
       </c>
       <c r="C173" s="4" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="D173" s="4" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>AA+/AAA</t>
         </is>
       </c>
       <c r="E173" s="5" t="inlineStr">
         <is>
-          <t>2.81Y</t>
+          <t>2.85Y</t>
         </is>
       </c>
       <c r="F173" s="5" t="inlineStr">
         <is>
-          <t>20宁波银行01</t>
+          <t>20浦发银行01</t>
         </is>
       </c>
       <c r="G173" s="5" t="inlineStr">
@@ -7977,17 +7977,17 @@
     <row r="174">
       <c r="A174" s="3" t="inlineStr">
         <is>
-          <t>1.83Y</t>
+          <t>2.68Y+NY(休1)</t>
         </is>
       </c>
       <c r="B174" s="4" t="inlineStr">
         <is>
-          <t>19江苏银行绿色金融01</t>
+          <t>20厦贸Y1</t>
         </is>
       </c>
       <c r="C174" s="4" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="D174" s="4" t="inlineStr">
@@ -7997,17 +7997,17 @@
       </c>
       <c r="E174" s="5" t="inlineStr">
         <is>
-          <t>2.81Y</t>
+          <t>2.85Y</t>
         </is>
       </c>
       <c r="F174" s="5" t="inlineStr">
         <is>
-          <t>18杭金02</t>
+          <t>20东航01</t>
         </is>
       </c>
       <c r="G174" s="5" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="H174" s="6" t="inlineStr">
@@ -8019,17 +8019,17 @@
     <row r="175">
       <c r="A175" s="3" t="inlineStr">
         <is>
-          <t>1.84Y</t>
+          <t>2.7Y</t>
         </is>
       </c>
       <c r="B175" s="4" t="inlineStr">
         <is>
-          <t>19中投C1</t>
+          <t>20宁波银行小微债01</t>
         </is>
       </c>
       <c r="C175" s="4" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="D175" s="4" t="inlineStr">
@@ -8039,12 +8039,12 @@
       </c>
       <c r="E175" s="5" t="inlineStr">
         <is>
-          <t>2.81Y</t>
+          <t>2.85Y</t>
         </is>
       </c>
       <c r="F175" s="5" t="inlineStr">
         <is>
-          <t>20光明01</t>
+          <t>20东航01</t>
         </is>
       </c>
       <c r="G175" s="5" t="inlineStr">
@@ -8061,17 +8061,17 @@
     <row r="176">
       <c r="A176" s="3" t="inlineStr">
         <is>
-          <t>1.84Y+2Y</t>
+          <t>2.7Y</t>
         </is>
       </c>
       <c r="B176" s="4" t="inlineStr">
         <is>
-          <t>19潞安01</t>
+          <t>20浙商银行小微债01</t>
         </is>
       </c>
       <c r="C176" s="4" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="D176" s="4" t="inlineStr">
@@ -8081,17 +8081,17 @@
       </c>
       <c r="E176" s="5" t="inlineStr">
         <is>
-          <t>2.81Y</t>
+          <t>2.85Y</t>
         </is>
       </c>
       <c r="F176" s="5" t="inlineStr">
         <is>
-          <t>20京投01</t>
+          <t>20中船03</t>
         </is>
       </c>
       <c r="G176" s="5" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="H176" s="6" t="inlineStr">
@@ -8103,17 +8103,17 @@
     <row r="177">
       <c r="A177" s="3" t="inlineStr">
         <is>
-          <t>1.84Y+2Y</t>
+          <t>2.7Y</t>
         </is>
       </c>
       <c r="B177" s="4" t="inlineStr">
         <is>
-          <t>19潞安01</t>
+          <t>20浙商银行小微债01</t>
         </is>
       </c>
       <c r="C177" s="4" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="D177" s="4" t="inlineStr">
@@ -8123,17 +8123,17 @@
       </c>
       <c r="E177" s="5" t="inlineStr">
         <is>
-          <t>2.81Y</t>
+          <t>2.85Y</t>
         </is>
       </c>
       <c r="F177" s="5" t="inlineStr">
         <is>
-          <t>18杭金02</t>
+          <t>20中船03</t>
         </is>
       </c>
       <c r="G177" s="5" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="H177" s="6" t="inlineStr">
@@ -8145,17 +8145,17 @@
     <row r="178">
       <c r="A178" s="3" t="inlineStr">
         <is>
-          <t>1.95Y+2Y</t>
+          <t>2.70Y</t>
         </is>
       </c>
       <c r="B178" s="4" t="inlineStr">
         <is>
-          <t>19融和02</t>
+          <t>20宝钢01</t>
         </is>
       </c>
       <c r="C178" s="4" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="D178" s="4" t="inlineStr">
@@ -8165,17 +8165,17 @@
       </c>
       <c r="E178" s="5" t="inlineStr">
         <is>
-          <t>2.81Y</t>
+          <t>2.87Y+2Y</t>
         </is>
       </c>
       <c r="F178" s="5" t="inlineStr">
         <is>
-          <t>20京投01</t>
+          <t>20西咸集团债03</t>
         </is>
       </c>
       <c r="G178" s="5" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="H178" s="6" t="inlineStr">
@@ -8187,17 +8187,17 @@
     <row r="179">
       <c r="A179" s="3" t="inlineStr">
         <is>
-          <t>1.95Y+2Y</t>
+          <t>2.7Y</t>
         </is>
       </c>
       <c r="B179" s="4" t="inlineStr">
         <is>
-          <t>19齐鲁01</t>
+          <t>20浙商银行小微债01</t>
         </is>
       </c>
       <c r="C179" s="4" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="D179" s="4" t="inlineStr">
@@ -8207,17 +8207,17 @@
       </c>
       <c r="E179" s="5" t="inlineStr">
         <is>
-          <t>2.81Y</t>
+          <t>2.87Y</t>
         </is>
       </c>
       <c r="F179" s="5" t="inlineStr">
         <is>
-          <t>18杭金02</t>
+          <t>20深投02</t>
         </is>
       </c>
       <c r="G179" s="5" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H179" s="6" t="inlineStr">
@@ -8229,17 +8229,17 @@
     <row r="180">
       <c r="A180" s="3" t="inlineStr">
         <is>
-          <t>2.11Y</t>
+          <t>2.7Y</t>
         </is>
       </c>
       <c r="B180" s="4" t="inlineStr">
         <is>
-          <t>12铁道03</t>
+          <t>20浙商银行小微债01</t>
         </is>
       </c>
       <c r="C180" s="4" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="D180" s="4" t="inlineStr">
@@ -8249,17 +8249,17 @@
       </c>
       <c r="E180" s="5" t="inlineStr">
         <is>
-          <t>2.81Y</t>
+          <t>2.92Y</t>
         </is>
       </c>
       <c r="F180" s="5" t="inlineStr">
         <is>
-          <t>20光明01</t>
+          <t>20海通06</t>
         </is>
       </c>
       <c r="G180" s="5" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="H180" s="6" t="inlineStr">
@@ -8271,12 +8271,12 @@
     <row r="181">
       <c r="A181" s="3" t="inlineStr">
         <is>
-          <t>2.18Y+2Y</t>
+          <t>2.72Y</t>
         </is>
       </c>
       <c r="B181" s="4" t="inlineStr">
         <is>
-          <t>19老窖01</t>
+          <t>20信投G1</t>
         </is>
       </c>
       <c r="C181" s="4" t="inlineStr">
@@ -8291,39 +8291,39 @@
       </c>
       <c r="E181" s="5" t="inlineStr">
         <is>
-          <t>2.81Y</t>
+          <t>2.92Y</t>
         </is>
       </c>
       <c r="F181" s="5" t="inlineStr">
         <is>
-          <t>20光明01</t>
+          <t>16浏阳城建债</t>
         </is>
       </c>
       <c r="G181" s="5" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="H181" s="6" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>AA+/AAA</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="3" t="inlineStr">
         <is>
-          <t>2.21Y</t>
+          <t>2.72Y(休2)</t>
         </is>
       </c>
       <c r="B182" s="4" t="inlineStr">
         <is>
-          <t>G17发展1</t>
+          <t>20信投G1</t>
         </is>
       </c>
       <c r="C182" s="4" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="D182" s="4" t="inlineStr">
@@ -8333,17 +8333,17 @@
       </c>
       <c r="E182" s="5" t="inlineStr">
         <is>
-          <t>2.82Y</t>
+          <t>3.78Y</t>
         </is>
       </c>
       <c r="F182" s="5" t="inlineStr">
         <is>
-          <t>18中金C1</t>
+          <t>19伊泰01</t>
         </is>
       </c>
       <c r="G182" s="5" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="H182" s="6" t="inlineStr">
@@ -8355,17 +8355,17 @@
     <row r="183">
       <c r="A183" s="3" t="inlineStr">
         <is>
-          <t>2.26Y</t>
+          <t>2.72Y</t>
         </is>
       </c>
       <c r="B183" s="4" t="inlineStr">
         <is>
-          <t>19招商银行小微债02</t>
+          <t>20信投G1</t>
         </is>
       </c>
       <c r="C183" s="4" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="D183" s="4" t="inlineStr">
@@ -8375,17 +8375,17 @@
       </c>
       <c r="E183" s="5" t="inlineStr">
         <is>
-          <t>2.82Y</t>
+          <t>4.01Y</t>
         </is>
       </c>
       <c r="F183" s="5" t="inlineStr">
         <is>
-          <t>20中化01</t>
+          <t>19蛇口01</t>
         </is>
       </c>
       <c r="G183" s="5" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="H183" s="6" t="inlineStr">
@@ -8397,17 +8397,17 @@
     <row r="184">
       <c r="A184" s="3" t="inlineStr">
         <is>
-          <t>2.26Y</t>
+          <t>2.72Y</t>
         </is>
       </c>
       <c r="B184" s="4" t="inlineStr">
         <is>
-          <t>19招商银行小微债02</t>
+          <t>20信投G1</t>
         </is>
       </c>
       <c r="C184" s="4" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="D184" s="4" t="inlineStr">
@@ -8417,17 +8417,17 @@
       </c>
       <c r="E184" s="5" t="inlineStr">
         <is>
-          <t>2.82Y</t>
+          <t>4.01Y</t>
         </is>
       </c>
       <c r="F184" s="5" t="inlineStr">
         <is>
-          <t>20中化01</t>
+          <t>19蛇口01</t>
         </is>
       </c>
       <c r="G184" s="5" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="H184" s="6" t="inlineStr">
@@ -8439,17 +8439,17 @@
     <row r="185">
       <c r="A185" s="3" t="inlineStr">
         <is>
-          <t>2.31Y+2Y</t>
+          <t>2.72Y</t>
         </is>
       </c>
       <c r="B185" s="4" t="inlineStr">
         <is>
-          <t>19常城04</t>
+          <t>13京投债</t>
         </is>
       </c>
       <c r="C185" s="4" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="D185" s="4" t="inlineStr">
@@ -8459,17 +8459,17 @@
       </c>
       <c r="E185" s="5" t="inlineStr">
         <is>
-          <t>2.82Y</t>
+          <t>4.01Y</t>
         </is>
       </c>
       <c r="F185" s="5" t="inlineStr">
         <is>
-          <t>20华宝01</t>
+          <t>19蛇口01</t>
         </is>
       </c>
       <c r="G185" s="5" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="H185" s="6" t="inlineStr">
@@ -8481,17 +8481,17 @@
     <row r="186">
       <c r="A186" s="7" t="inlineStr">
         <is>
-          <t>2.40Y+N</t>
+          <t>2.72Y</t>
         </is>
       </c>
       <c r="B186" s="8" t="inlineStr">
         <is>
-          <t>19电建Y1</t>
+          <t>13京投债</t>
         </is>
       </c>
       <c r="C186" s="8" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="D186" s="8" t="inlineStr">
@@ -8501,17 +8501,17 @@
       </c>
       <c r="E186" s="9" t="inlineStr">
         <is>
-          <t>2.83Y</t>
+          <t>4.01Y</t>
         </is>
       </c>
       <c r="F186" s="9" t="inlineStr">
         <is>
-          <t>20鲁高01</t>
+          <t>19蛇口01</t>
         </is>
       </c>
       <c r="G186" s="9" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="H186" s="10" t="inlineStr">
@@ -8582,17 +8582,17 @@
     <row r="189">
       <c r="A189" s="3" t="inlineStr">
         <is>
-          <t>2.83Y</t>
+          <t>4.01Y</t>
         </is>
       </c>
       <c r="B189" s="4" t="inlineStr">
         <is>
-          <t>20鲁高01</t>
+          <t>19蛇口01</t>
         </is>
       </c>
       <c r="C189" s="4" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="D189" s="4" t="inlineStr">
@@ -8602,17 +8602,17 @@
       </c>
       <c r="E189" s="5" t="inlineStr">
         <is>
-          <t>84D</t>
+          <t>2.55Y</t>
         </is>
       </c>
       <c r="F189" s="5" t="inlineStr">
         <is>
-          <t>15无锡市政PPN001</t>
+          <t>20港兴港投PPN001</t>
         </is>
       </c>
       <c r="G189" s="5" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="H189" s="6" t="inlineStr">
@@ -8624,17 +8624,17 @@
     <row r="190">
       <c r="A190" s="3" t="inlineStr">
         <is>
-          <t>2.83Y</t>
+          <t>4.15Y+NY</t>
         </is>
       </c>
       <c r="B190" s="4" t="inlineStr">
         <is>
-          <t>20鲁高01</t>
+          <t>电投Y20</t>
         </is>
       </c>
       <c r="C190" s="4" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="D190" s="4" t="inlineStr">
@@ -8644,17 +8644,17 @@
       </c>
       <c r="E190" s="5" t="inlineStr">
         <is>
-          <t>84D</t>
+          <t>2.55Y</t>
         </is>
       </c>
       <c r="F190" s="5" t="inlineStr">
         <is>
-          <t>15无锡市政PPN001</t>
+          <t>20港兴港投PPN001</t>
         </is>
       </c>
       <c r="G190" s="5" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="H190" s="6" t="inlineStr">
@@ -8666,17 +8666,17 @@
     <row r="191">
       <c r="A191" s="3" t="inlineStr">
         <is>
-          <t>2.84Y</t>
+          <t>4.15Y+NY</t>
         </is>
       </c>
       <c r="B191" s="4" t="inlineStr">
         <is>
-          <t>20一汽01</t>
+          <t>电投Y20</t>
         </is>
       </c>
       <c r="C191" s="4" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="D191" s="4" t="inlineStr">
@@ -8686,17 +8686,17 @@
       </c>
       <c r="E191" s="5" t="inlineStr">
         <is>
-          <t>91D</t>
+          <t>2.72Y</t>
         </is>
       </c>
       <c r="F191" s="5" t="inlineStr">
         <is>
-          <t>15西部02</t>
+          <t>18湖北科投PPN001</t>
         </is>
       </c>
       <c r="G191" s="5" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="H191" s="6" t="inlineStr">
@@ -8708,17 +8708,17 @@
     <row r="192">
       <c r="A192" s="3" t="inlineStr">
         <is>
-          <t>2.84Y</t>
+          <t>4.16Y</t>
         </is>
       </c>
       <c r="B192" s="4" t="inlineStr">
         <is>
-          <t>20云投G1</t>
+          <t>19湘江02</t>
         </is>
       </c>
       <c r="C192" s="4" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="D192" s="4" t="inlineStr">
@@ -8728,39 +8728,39 @@
       </c>
       <c r="E192" s="5" t="inlineStr">
         <is>
-          <t>0.32Y+1Y</t>
+          <t>2.72Y</t>
         </is>
       </c>
       <c r="F192" s="5" t="inlineStr">
         <is>
-          <t>18时代11</t>
+          <t>20信投G1</t>
         </is>
       </c>
       <c r="G192" s="5" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="H192" s="6" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>AA/AAA</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="3" t="inlineStr">
         <is>
-          <t>2.84Y</t>
+          <t>4.16Y+NY</t>
         </is>
       </c>
       <c r="B193" s="4" t="inlineStr">
         <is>
-          <t>20一汽01</t>
+          <t>19大唐Y6</t>
         </is>
       </c>
       <c r="C193" s="4" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="D193" s="4" t="inlineStr">
@@ -8770,39 +8770,39 @@
       </c>
       <c r="E193" s="5" t="inlineStr">
         <is>
-          <t>0.32Y+1Y</t>
+          <t>2.72Y</t>
         </is>
       </c>
       <c r="F193" s="5" t="inlineStr">
         <is>
-          <t>18时代11</t>
+          <t>20信投G1</t>
         </is>
       </c>
       <c r="G193" s="5" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="H193" s="6" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>AA/AAA</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="3" t="inlineStr">
         <is>
-          <t>2.84Y</t>
+          <t>4.16Y+NY</t>
         </is>
       </c>
       <c r="B194" s="4" t="inlineStr">
         <is>
-          <t>20一汽01</t>
+          <t>19大唐Y6</t>
         </is>
       </c>
       <c r="C194" s="4" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="D194" s="4" t="inlineStr">
@@ -8812,17 +8812,17 @@
       </c>
       <c r="E194" s="5" t="inlineStr">
         <is>
-          <t>151D(休2)</t>
+          <t>2.73Y</t>
         </is>
       </c>
       <c r="F194" s="5" t="inlineStr">
         <is>
-          <t>17平安租赁PPN002</t>
+          <t>20重庆农商债</t>
         </is>
       </c>
       <c r="G194" s="5" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="H194" s="6" t="inlineStr">
@@ -8834,17 +8834,17 @@
     <row r="195">
       <c r="A195" s="3" t="inlineStr">
         <is>
-          <t>2.85Y</t>
+          <t>4.16Y+NY</t>
         </is>
       </c>
       <c r="B195" s="4" t="inlineStr">
         <is>
-          <t>20浦发银行01</t>
+          <t>19大唐Y6</t>
         </is>
       </c>
       <c r="C195" s="4" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="D195" s="4" t="inlineStr">
@@ -8854,17 +8854,17 @@
       </c>
       <c r="E195" s="5" t="inlineStr">
         <is>
-          <t>182D</t>
+          <t>2.74Y</t>
         </is>
       </c>
       <c r="F195" s="5" t="inlineStr">
         <is>
-          <t>15交通银行债</t>
+          <t>20民生银行小微01</t>
         </is>
       </c>
       <c r="G195" s="5" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="H195" s="6" t="inlineStr">
@@ -8876,17 +8876,17 @@
     <row r="196">
       <c r="A196" s="3" t="inlineStr">
         <is>
-          <t>2.85Y</t>
+          <t>4.17Y</t>
         </is>
       </c>
       <c r="B196" s="4" t="inlineStr">
         <is>
-          <t>20中船03</t>
+          <t>19国管02</t>
         </is>
       </c>
       <c r="C196" s="4" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="D196" s="4" t="inlineStr">
@@ -8896,17 +8896,17 @@
       </c>
       <c r="E196" s="5" t="inlineStr">
         <is>
-          <t>182D</t>
+          <t>2.76Y</t>
         </is>
       </c>
       <c r="F196" s="5" t="inlineStr">
         <is>
-          <t>15交通银行债</t>
+          <t>20华泰G1</t>
         </is>
       </c>
       <c r="G196" s="5" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="H196" s="6" t="inlineStr">
@@ -8918,17 +8918,17 @@
     <row r="197">
       <c r="A197" s="3" t="inlineStr">
         <is>
-          <t>2.85Y</t>
+          <t>4.26Y+NY</t>
         </is>
       </c>
       <c r="B197" s="4" t="inlineStr">
         <is>
-          <t>20深地铁债02</t>
+          <t>19华电Y4</t>
         </is>
       </c>
       <c r="C197" s="4" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="D197" s="4" t="inlineStr">
@@ -8938,17 +8938,17 @@
       </c>
       <c r="E197" s="5" t="inlineStr">
         <is>
-          <t>182D</t>
+          <t>2.79Y</t>
         </is>
       </c>
       <c r="F197" s="5" t="inlineStr">
         <is>
-          <t>15交通银行债</t>
+          <t>20招联消费金融03</t>
         </is>
       </c>
       <c r="G197" s="5" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H197" s="6" t="inlineStr">
@@ -8960,17 +8960,17 @@
     <row r="198">
       <c r="A198" s="3" t="inlineStr">
         <is>
-          <t>2.85Y</t>
+          <t>4.26Y+NY</t>
         </is>
       </c>
       <c r="B198" s="4" t="inlineStr">
         <is>
-          <t>20中船03</t>
+          <t>19华电Y4</t>
         </is>
       </c>
       <c r="C198" s="4" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="D198" s="4" t="inlineStr">
@@ -8980,39 +8980,39 @@
       </c>
       <c r="E198" s="5" t="inlineStr">
         <is>
-          <t>269D</t>
+          <t>2.79Y</t>
         </is>
       </c>
       <c r="F198" s="5" t="inlineStr">
         <is>
-          <t>18鲁钢01</t>
+          <t>20招联消费金融03</t>
         </is>
       </c>
       <c r="G198" s="5" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H198" s="6" t="inlineStr">
         <is>
-          <t>AA+/AAA</t>
+          <t>AAA</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="3" t="inlineStr">
         <is>
-          <t>2.85Y</t>
+          <t>4.26Y+NY</t>
         </is>
       </c>
       <c r="B199" s="4" t="inlineStr">
         <is>
-          <t>20浦发银行01</t>
+          <t>19大唐Y8</t>
         </is>
       </c>
       <c r="C199" s="4" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="D199" s="4" t="inlineStr">
@@ -9022,39 +9022,39 @@
       </c>
       <c r="E199" s="5" t="inlineStr">
         <is>
-          <t>271D</t>
+          <t>2.79Y</t>
         </is>
       </c>
       <c r="F199" s="5" t="inlineStr">
         <is>
-          <t>18国君G1</t>
+          <t>20招联消费金融03</t>
         </is>
       </c>
       <c r="G199" s="5" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H199" s="6" t="inlineStr">
         <is>
-          <t>A/AAA</t>
+          <t>AAA</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="3" t="inlineStr">
         <is>
-          <t>2.85Y</t>
+          <t>4.31Y+3Y</t>
         </is>
       </c>
       <c r="B200" s="4" t="inlineStr">
         <is>
-          <t>20东航01</t>
+          <t>19青城G1</t>
         </is>
       </c>
       <c r="C200" s="4" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="D200" s="4" t="inlineStr">
@@ -9064,143 +9064,143 @@
       </c>
       <c r="E200" s="5" t="inlineStr">
         <is>
-          <t>271D</t>
+          <t>2.82Y</t>
         </is>
       </c>
       <c r="F200" s="5" t="inlineStr">
         <is>
-          <t>18国君G1</t>
+          <t>18乌城投PPN001</t>
         </is>
       </c>
       <c r="G200" s="5" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="H200" s="6" t="inlineStr">
         <is>
-          <t>A/AAA</t>
+          <t>AAA</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="3" t="inlineStr">
         <is>
+          <t>4.31Y</t>
+        </is>
+      </c>
+      <c r="B201" s="4" t="inlineStr">
+        <is>
+          <t>19铁道13</t>
+        </is>
+      </c>
+      <c r="C201" s="4" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="D201" s="4" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="E201" s="5" t="inlineStr">
+        <is>
           <t>2.85Y</t>
         </is>
       </c>
-      <c r="B201" s="4" t="inlineStr">
-        <is>
-          <t>20东航01</t>
-        </is>
-      </c>
-      <c r="C201" s="4" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="D201" s="4" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
-      <c r="E201" s="5" t="inlineStr">
-        <is>
-          <t>306D(休2)</t>
-        </is>
-      </c>
       <c r="F201" s="5" t="inlineStr">
         <is>
-          <t>18川港航PPN001</t>
+          <t>20浦发银行01</t>
         </is>
       </c>
       <c r="G201" s="5" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="H201" s="6" t="inlineStr">
         <is>
-          <t>AA+/AAA</t>
+          <t>AAA</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="3" t="inlineStr">
         <is>
+          <t>4.4Y</t>
+        </is>
+      </c>
+      <c r="B202" s="4" t="inlineStr">
+        <is>
+          <t>19北汽12</t>
+        </is>
+      </c>
+      <c r="C202" s="4" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="D202" s="4" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="E202" s="5" t="inlineStr">
+        <is>
           <t>2.85Y</t>
         </is>
       </c>
-      <c r="B202" s="4" t="inlineStr">
-        <is>
-          <t>20中船03</t>
-        </is>
-      </c>
-      <c r="C202" s="4" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="D202" s="4" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
-      <c r="E202" s="5" t="inlineStr">
-        <is>
-          <t>307D</t>
-        </is>
-      </c>
       <c r="F202" s="5" t="inlineStr">
         <is>
-          <t>19腾越01</t>
+          <t>20浦发银行01</t>
         </is>
       </c>
       <c r="G202" s="5" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="H202" s="6" t="inlineStr">
         <is>
-          <t>AA/AAA</t>
+          <t>AAA</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="3" t="inlineStr">
         <is>
+          <t>4.72Y</t>
+        </is>
+      </c>
+      <c r="B203" s="4" t="inlineStr">
+        <is>
+          <t>20浙交01</t>
+        </is>
+      </c>
+      <c r="C203" s="4" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="D203" s="4" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="E203" s="5" t="inlineStr">
+        <is>
           <t>2.85Y</t>
         </is>
       </c>
-      <c r="B203" s="4" t="inlineStr">
-        <is>
-          <t>20中船03</t>
-        </is>
-      </c>
-      <c r="C203" s="4" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="D203" s="4" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
-      <c r="E203" s="5" t="inlineStr">
-        <is>
-          <t>1.08Y</t>
-        </is>
-      </c>
       <c r="F203" s="5" t="inlineStr">
         <is>
-          <t>16光控02</t>
+          <t>20浦发银行01</t>
         </is>
       </c>
       <c r="G203" s="5" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="H203" s="6" t="inlineStr">
@@ -9212,17 +9212,17 @@
     <row r="204">
       <c r="A204" s="3" t="inlineStr">
         <is>
-          <t>2.87Y+2Y</t>
+          <t>4.72Y</t>
         </is>
       </c>
       <c r="B204" s="4" t="inlineStr">
         <is>
-          <t>20西咸集团债03</t>
+          <t>20浙交01</t>
         </is>
       </c>
       <c r="C204" s="4" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="D204" s="4" t="inlineStr">
@@ -9232,17 +9232,17 @@
       </c>
       <c r="E204" s="5" t="inlineStr">
         <is>
-          <t>1.08Y</t>
+          <t>2.91Y+2Y</t>
         </is>
       </c>
       <c r="F204" s="5" t="inlineStr">
         <is>
-          <t>16光控02</t>
+          <t>20首业04</t>
         </is>
       </c>
       <c r="G204" s="5" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="H204" s="6" t="inlineStr">
@@ -9254,17 +9254,17 @@
     <row r="205">
       <c r="A205" s="3" t="inlineStr">
         <is>
-          <t>2.87Y</t>
+          <t>4.73Y</t>
         </is>
       </c>
       <c r="B205" s="4" t="inlineStr">
         <is>
-          <t>20深投02</t>
+          <t>20中煤01</t>
         </is>
       </c>
       <c r="C205" s="4" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="D205" s="4" t="inlineStr">
@@ -9274,17 +9274,17 @@
       </c>
       <c r="E205" s="5" t="inlineStr">
         <is>
-          <t>1.08Y</t>
+          <t>4.87Y</t>
         </is>
       </c>
       <c r="F205" s="5" t="inlineStr">
         <is>
-          <t>16光控02</t>
+          <t>20兴业银行小微02</t>
         </is>
       </c>
       <c r="G205" s="5" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H205" s="6" t="inlineStr">
@@ -9296,17 +9296,17 @@
     <row r="206">
       <c r="A206" s="3" t="inlineStr">
         <is>
-          <t>2.92Y</t>
+          <t>4.73Y</t>
         </is>
       </c>
       <c r="B206" s="4" t="inlineStr">
         <is>
-          <t>20海通06</t>
+          <t>20中煤01</t>
         </is>
       </c>
       <c r="C206" s="4" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="D206" s="4" t="inlineStr">
@@ -9316,17 +9316,17 @@
       </c>
       <c r="E206" s="5" t="inlineStr">
         <is>
-          <t>1.08Y</t>
+          <t>4.87Y</t>
         </is>
       </c>
       <c r="F206" s="5" t="inlineStr">
         <is>
-          <t>16光控02</t>
+          <t>20兴业银行小微02</t>
         </is>
       </c>
       <c r="G206" s="5" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H206" s="6" t="inlineStr">
@@ -9338,37 +9338,37 @@
     <row r="207">
       <c r="A207" s="3" t="inlineStr">
         <is>
-          <t>2.92Y</t>
+          <t>4.73Y</t>
         </is>
       </c>
       <c r="B207" s="4" t="inlineStr">
         <is>
-          <t>16浏阳城建债</t>
+          <t>20中煤01</t>
         </is>
       </c>
       <c r="C207" s="4" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="D207" s="4" t="inlineStr">
         <is>
-          <t>AA+/AAA</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="E207" s="5" t="inlineStr">
         <is>
-          <t>1.09Y</t>
+          <t>4.87Y</t>
         </is>
       </c>
       <c r="F207" s="5" t="inlineStr">
         <is>
-          <t>16龙控01</t>
+          <t>20兴业银行小微02</t>
         </is>
       </c>
       <c r="G207" s="5" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H207" s="6" t="inlineStr">
@@ -9380,17 +9380,17 @@
     <row r="208">
       <c r="A208" s="3" t="inlineStr">
         <is>
-          <t>3.78Y</t>
+          <t>4.73Y</t>
         </is>
       </c>
       <c r="B208" s="4" t="inlineStr">
         <is>
-          <t>19伊泰01</t>
+          <t>20华控01</t>
         </is>
       </c>
       <c r="C208" s="4" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="D208" s="4" t="inlineStr">
@@ -9400,17 +9400,17 @@
       </c>
       <c r="E208" s="5" t="inlineStr">
         <is>
-          <t>1.13Y+2Y</t>
+          <t>4.87Y</t>
         </is>
       </c>
       <c r="F208" s="5" t="inlineStr">
         <is>
-          <t>18晋交03</t>
+          <t>20兴业银行小微02</t>
         </is>
       </c>
       <c r="G208" s="5" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H208" s="6" t="inlineStr">
@@ -9422,17 +9422,17 @@
     <row r="209">
       <c r="A209" s="3" t="inlineStr">
         <is>
-          <t>4.01Y</t>
+          <t>4.74Y</t>
         </is>
       </c>
       <c r="B209" s="4" t="inlineStr">
         <is>
-          <t>19蛇口01</t>
+          <t>20中煤01</t>
         </is>
       </c>
       <c r="C209" s="4" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="D209" s="4" t="inlineStr">
@@ -9440,41 +9440,25 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="E209" s="5" t="inlineStr">
-        <is>
-          <t>1.13Y+2Y</t>
-        </is>
-      </c>
-      <c r="F209" s="5" t="inlineStr">
-        <is>
-          <t>18晋交03</t>
-        </is>
-      </c>
-      <c r="G209" s="5" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="H209" s="6" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="E209" s="5" t="n"/>
+      <c r="F209" s="5" t="n"/>
+      <c r="G209" s="5" t="n"/>
+      <c r="H209" s="6" t="n"/>
     </row>
     <row r="210">
       <c r="A210" s="3" t="inlineStr">
         <is>
-          <t>4.01Y</t>
+          <t>4.81Y</t>
         </is>
       </c>
       <c r="B210" s="4" t="inlineStr">
         <is>
-          <t>19蛇口01</t>
+          <t>20穗控02</t>
         </is>
       </c>
       <c r="C210" s="4" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="D210" s="4" t="inlineStr">
@@ -9482,41 +9466,25 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="E210" s="5" t="inlineStr">
-        <is>
-          <t>1.13Y+1Y</t>
-        </is>
-      </c>
-      <c r="F210" s="5" t="inlineStr">
-        <is>
-          <t>19同煤03</t>
-        </is>
-      </c>
-      <c r="G210" s="5" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="H210" s="6" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="E210" s="5" t="n"/>
+      <c r="F210" s="5" t="n"/>
+      <c r="G210" s="5" t="n"/>
+      <c r="H210" s="6" t="n"/>
     </row>
     <row r="211">
       <c r="A211" s="3" t="inlineStr">
         <is>
-          <t>4.01Y</t>
+          <t>4.81Y</t>
         </is>
       </c>
       <c r="B211" s="4" t="inlineStr">
         <is>
-          <t>19蛇口01</t>
+          <t>20穗控02</t>
         </is>
       </c>
       <c r="C211" s="4" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="D211" s="4" t="inlineStr">
@@ -9524,41 +9492,25 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="E211" s="5" t="inlineStr">
-        <is>
-          <t>1.27Y</t>
-        </is>
-      </c>
-      <c r="F211" s="5" t="inlineStr">
-        <is>
-          <t>18海淀国资PPN001</t>
-        </is>
-      </c>
-      <c r="G211" s="5" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="H211" s="6" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="E211" s="5" t="n"/>
+      <c r="F211" s="5" t="n"/>
+      <c r="G211" s="5" t="n"/>
+      <c r="H211" s="6" t="n"/>
     </row>
     <row r="212">
       <c r="A212" s="3" t="inlineStr">
         <is>
-          <t>4.01Y</t>
+          <t>4.81Y</t>
         </is>
       </c>
       <c r="B212" s="4" t="inlineStr">
         <is>
-          <t>19蛇口01</t>
+          <t>20穗控02</t>
         </is>
       </c>
       <c r="C212" s="4" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="D212" s="4" t="inlineStr">
@@ -9566,41 +9518,25 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="E212" s="5" t="inlineStr">
-        <is>
-          <t>1.33Y</t>
-        </is>
-      </c>
-      <c r="F212" s="5" t="inlineStr">
-        <is>
-          <t>18东风日产汽车02</t>
-        </is>
-      </c>
-      <c r="G212" s="5" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="H212" s="6" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="E212" s="5" t="n"/>
+      <c r="F212" s="5" t="n"/>
+      <c r="G212" s="5" t="n"/>
+      <c r="H212" s="6" t="n"/>
     </row>
     <row r="213">
       <c r="A213" s="3" t="inlineStr">
         <is>
-          <t>4.01Y</t>
+          <t>4.83Y</t>
         </is>
       </c>
       <c r="B213" s="4" t="inlineStr">
         <is>
-          <t>19蛇口01</t>
+          <t>G20宁铁1</t>
         </is>
       </c>
       <c r="C213" s="4" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="D213" s="4" t="inlineStr">
@@ -9608,41 +9544,25 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="E213" s="5" t="inlineStr">
-        <is>
-          <t>1.43Y</t>
-        </is>
-      </c>
-      <c r="F213" s="5" t="inlineStr">
-        <is>
-          <t>18上汽通用债02</t>
-        </is>
-      </c>
-      <c r="G213" s="5" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="H213" s="6" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="E213" s="5" t="n"/>
+      <c r="F213" s="5" t="n"/>
+      <c r="G213" s="5" t="n"/>
+      <c r="H213" s="6" t="n"/>
     </row>
     <row r="214">
       <c r="A214" s="3" t="inlineStr">
         <is>
-          <t>4.15Y+NY</t>
+          <t>4.83Y(休1)</t>
         </is>
       </c>
       <c r="B214" s="4" t="inlineStr">
         <is>
-          <t>电投Y20</t>
+          <t>G20宁铁1</t>
         </is>
       </c>
       <c r="C214" s="4" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="D214" s="4" t="inlineStr">
@@ -9650,41 +9570,25 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="E214" s="5" t="inlineStr">
-        <is>
-          <t>1.43Y</t>
-        </is>
-      </c>
-      <c r="F214" s="5" t="inlineStr">
-        <is>
-          <t>18上汽通用债02</t>
-        </is>
-      </c>
-      <c r="G214" s="5" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="H214" s="6" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="E214" s="5" t="n"/>
+      <c r="F214" s="5" t="n"/>
+      <c r="G214" s="5" t="n"/>
+      <c r="H214" s="6" t="n"/>
     </row>
     <row r="215">
       <c r="A215" s="3" t="inlineStr">
         <is>
-          <t>4.15Y+NY</t>
+          <t>4.83Y</t>
         </is>
       </c>
       <c r="B215" s="4" t="inlineStr">
         <is>
-          <t>电投Y20</t>
+          <t>G20宁铁1</t>
         </is>
       </c>
       <c r="C215" s="4" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="D215" s="4" t="inlineStr">
@@ -9692,41 +9596,25 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="E215" s="5" t="inlineStr">
-        <is>
-          <t>1.67Y+2Y</t>
-        </is>
-      </c>
-      <c r="F215" s="5" t="inlineStr">
-        <is>
-          <t>20东资01</t>
-        </is>
-      </c>
-      <c r="G215" s="5" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="H215" s="6" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="E215" s="5" t="n"/>
+      <c r="F215" s="5" t="n"/>
+      <c r="G215" s="5" t="n"/>
+      <c r="H215" s="6" t="n"/>
     </row>
     <row r="216">
       <c r="A216" s="3" t="inlineStr">
         <is>
-          <t>4.16Y</t>
+          <t>4.83Y</t>
         </is>
       </c>
       <c r="B216" s="4" t="inlineStr">
         <is>
-          <t>19湘江02</t>
+          <t>G20宁铁1</t>
         </is>
       </c>
       <c r="C216" s="4" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="D216" s="4" t="inlineStr">
@@ -9734,41 +9622,25 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="E216" s="5" t="inlineStr">
-        <is>
-          <t>1.70Y</t>
-        </is>
-      </c>
-      <c r="F216" s="5" t="inlineStr">
-        <is>
-          <t>19华融湘江银行01</t>
-        </is>
-      </c>
-      <c r="G216" s="5" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="H216" s="6" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="E216" s="5" t="n"/>
+      <c r="F216" s="5" t="n"/>
+      <c r="G216" s="5" t="n"/>
+      <c r="H216" s="6" t="n"/>
     </row>
     <row r="217">
       <c r="A217" s="3" t="inlineStr">
         <is>
-          <t>4.16Y+NY</t>
+          <t>4.9Y</t>
         </is>
       </c>
       <c r="B217" s="4" t="inlineStr">
         <is>
-          <t>19大唐Y6</t>
+          <t>20首创02</t>
         </is>
       </c>
       <c r="C217" s="4" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D217" s="4" t="inlineStr">
@@ -9776,293 +9648,169 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="E217" s="5" t="inlineStr">
-        <is>
-          <t>2.43Y</t>
-        </is>
-      </c>
-      <c r="F217" s="5" t="inlineStr">
-        <is>
-          <t>19交通银行01</t>
-        </is>
-      </c>
-      <c r="G217" s="5" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="H217" s="6" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="E217" s="5" t="n"/>
+      <c r="F217" s="5" t="n"/>
+      <c r="G217" s="5" t="n"/>
+      <c r="H217" s="6" t="n"/>
     </row>
     <row r="218">
-      <c r="A218" s="3" t="inlineStr">
-        <is>
-          <t>4.16Y+NY</t>
-        </is>
-      </c>
-      <c r="B218" s="4" t="inlineStr">
-        <is>
-          <t>19大唐Y6</t>
-        </is>
-      </c>
-      <c r="C218" s="4" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="D218" s="4" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
-      <c r="E218" s="5" t="inlineStr">
-        <is>
-          <t>2.43Y</t>
-        </is>
-      </c>
-      <c r="F218" s="5" t="inlineStr">
-        <is>
-          <t>19交通银行01</t>
-        </is>
-      </c>
-      <c r="G218" s="5" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="H218" s="6" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="A218" s="33" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="B218" s="34" t="n"/>
+      <c r="C218" s="34" t="n"/>
+      <c r="D218" s="35" t="n"/>
+      <c r="E218" s="5" t="n"/>
+      <c r="F218" s="5" t="n"/>
+      <c r="G218" s="5" t="n"/>
+      <c r="H218" s="6" t="n"/>
     </row>
     <row r="219">
       <c r="A219" s="3" t="inlineStr">
         <is>
-          <t>4.16Y+NY</t>
+          <t>269D</t>
         </is>
       </c>
       <c r="B219" s="4" t="inlineStr">
         <is>
-          <t>19大唐Y6</t>
+          <t>18鲁钢01</t>
         </is>
       </c>
       <c r="C219" s="4" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="D219" s="4" t="inlineStr">
         <is>
-          <t>AAA</t>
-        </is>
-      </c>
-      <c r="E219" s="5" t="inlineStr">
-        <is>
-          <t>2.43Y</t>
-        </is>
-      </c>
-      <c r="F219" s="5" t="inlineStr">
-        <is>
-          <t>19交通银行01</t>
-        </is>
-      </c>
-      <c r="G219" s="5" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="H219" s="6" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+          <t>AA+/AAA</t>
+        </is>
+      </c>
+      <c r="E219" s="5" t="n"/>
+      <c r="F219" s="5" t="n"/>
+      <c r="G219" s="5" t="n"/>
+      <c r="H219" s="6" t="n"/>
     </row>
     <row r="220">
       <c r="A220" s="3" t="inlineStr">
         <is>
-          <t>4.17Y</t>
+          <t>271D</t>
         </is>
       </c>
       <c r="B220" s="4" t="inlineStr">
         <is>
-          <t>19国管02</t>
+          <t>18国君G1</t>
         </is>
       </c>
       <c r="C220" s="4" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="D220" s="4" t="inlineStr">
         <is>
-          <t>AAA</t>
-        </is>
-      </c>
-      <c r="E220" s="5" t="inlineStr">
-        <is>
-          <t>2.43Y</t>
-        </is>
-      </c>
-      <c r="F220" s="5" t="inlineStr">
-        <is>
-          <t>19交通银行01</t>
-        </is>
-      </c>
-      <c r="G220" s="5" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="H220" s="6" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+          <t>A/AAA</t>
+        </is>
+      </c>
+      <c r="E220" s="5" t="n"/>
+      <c r="F220" s="5" t="n"/>
+      <c r="G220" s="5" t="n"/>
+      <c r="H220" s="6" t="n"/>
     </row>
     <row r="221">
       <c r="A221" s="3" t="inlineStr">
         <is>
-          <t>4.26Y+NY</t>
+          <t>271D</t>
         </is>
       </c>
       <c r="B221" s="4" t="inlineStr">
         <is>
-          <t>19华电Y4</t>
+          <t>18国君G1</t>
         </is>
       </c>
       <c r="C221" s="4" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="D221" s="4" t="inlineStr">
         <is>
-          <t>AAA</t>
-        </is>
-      </c>
-      <c r="E221" s="5" t="inlineStr">
-        <is>
-          <t>2.43Y</t>
-        </is>
-      </c>
-      <c r="F221" s="5" t="inlineStr">
-        <is>
-          <t>19交通银行01</t>
-        </is>
-      </c>
-      <c r="G221" s="5" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="H221" s="6" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+          <t>A/AAA</t>
+        </is>
+      </c>
+      <c r="E221" s="5" t="n"/>
+      <c r="F221" s="5" t="n"/>
+      <c r="G221" s="5" t="n"/>
+      <c r="H221" s="6" t="n"/>
     </row>
     <row r="222">
       <c r="A222" s="3" t="inlineStr">
         <is>
-          <t>4.26Y+NY</t>
+          <t>306D(休2)</t>
         </is>
       </c>
       <c r="B222" s="4" t="inlineStr">
         <is>
-          <t>19华电Y4</t>
+          <t>18川港航PPN001</t>
         </is>
       </c>
       <c r="C222" s="4" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="D222" s="4" t="inlineStr">
         <is>
-          <t>AAA</t>
-        </is>
-      </c>
-      <c r="E222" s="5" t="inlineStr">
-        <is>
-          <t>2.43Y</t>
-        </is>
-      </c>
-      <c r="F222" s="5" t="inlineStr">
-        <is>
-          <t>19交通银行01</t>
-        </is>
-      </c>
-      <c r="G222" s="5" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="H222" s="6" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+          <t>AA+/AAA</t>
+        </is>
+      </c>
+      <c r="E222" s="5" t="n"/>
+      <c r="F222" s="5" t="n"/>
+      <c r="G222" s="5" t="n"/>
+      <c r="H222" s="6" t="n"/>
     </row>
     <row r="223">
       <c r="A223" s="3" t="inlineStr">
         <is>
-          <t>4.26Y+NY</t>
+          <t>307D</t>
         </is>
       </c>
       <c r="B223" s="4" t="inlineStr">
         <is>
-          <t>19大唐Y8</t>
+          <t>19腾越01</t>
         </is>
       </c>
       <c r="C223" s="4" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="D223" s="4" t="inlineStr">
         <is>
-          <t>AAA</t>
-        </is>
-      </c>
-      <c r="E223" s="5" t="inlineStr">
-        <is>
-          <t>2.43Y</t>
-        </is>
-      </c>
-      <c r="F223" s="5" t="inlineStr">
-        <is>
-          <t>19交通银行01</t>
-        </is>
-      </c>
-      <c r="G223" s="5" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="H223" s="6" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+          <t>AA/AAA</t>
+        </is>
+      </c>
+      <c r="E223" s="5" t="n"/>
+      <c r="F223" s="5" t="n"/>
+      <c r="G223" s="5" t="n"/>
+      <c r="H223" s="6" t="n"/>
     </row>
     <row r="224">
       <c r="A224" s="3" t="inlineStr">
         <is>
-          <t>4.31Y+3Y</t>
+          <t>1.08Y</t>
         </is>
       </c>
       <c r="B224" s="4" t="inlineStr">
         <is>
-          <t>19青城G1</t>
+          <t>16光控02</t>
         </is>
       </c>
       <c r="C224" s="4" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="D224" s="4" t="inlineStr">
@@ -10070,41 +9818,25 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="E224" s="5" t="inlineStr">
-        <is>
-          <t>2.43Y</t>
-        </is>
-      </c>
-      <c r="F224" s="5" t="inlineStr">
-        <is>
-          <t>19交通银行01</t>
-        </is>
-      </c>
-      <c r="G224" s="5" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="H224" s="6" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="E224" s="5" t="n"/>
+      <c r="F224" s="5" t="n"/>
+      <c r="G224" s="5" t="n"/>
+      <c r="H224" s="6" t="n"/>
     </row>
     <row r="225">
       <c r="A225" s="3" t="inlineStr">
         <is>
-          <t>4.31Y</t>
+          <t>1.08Y</t>
         </is>
       </c>
       <c r="B225" s="4" t="inlineStr">
         <is>
-          <t>19铁道13</t>
+          <t>16光控02</t>
         </is>
       </c>
       <c r="C225" s="4" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="D225" s="4" t="inlineStr">
@@ -10112,41 +9844,25 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="E225" s="5" t="inlineStr">
-        <is>
-          <t>2.43Y</t>
-        </is>
-      </c>
-      <c r="F225" s="5" t="inlineStr">
-        <is>
-          <t>19交通银行01</t>
-        </is>
-      </c>
-      <c r="G225" s="5" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="H225" s="6" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="E225" s="5" t="n"/>
+      <c r="F225" s="5" t="n"/>
+      <c r="G225" s="5" t="n"/>
+      <c r="H225" s="6" t="n"/>
     </row>
     <row r="226">
       <c r="A226" s="3" t="inlineStr">
         <is>
-          <t>4.4Y</t>
+          <t>1.08Y</t>
         </is>
       </c>
       <c r="B226" s="4" t="inlineStr">
         <is>
-          <t>19北汽12</t>
+          <t>16光控02</t>
         </is>
       </c>
       <c r="C226" s="4" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="D226" s="4" t="inlineStr">
@@ -10154,41 +9870,25 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="E226" s="5" t="inlineStr">
-        <is>
-          <t>2.43Y</t>
-        </is>
-      </c>
-      <c r="F226" s="5" t="inlineStr">
-        <is>
-          <t>19交通银行01</t>
-        </is>
-      </c>
-      <c r="G226" s="5" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="H226" s="6" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="E226" s="5" t="n"/>
+      <c r="F226" s="5" t="n"/>
+      <c r="G226" s="5" t="n"/>
+      <c r="H226" s="6" t="n"/>
     </row>
     <row r="227">
       <c r="A227" s="3" t="inlineStr">
         <is>
-          <t>4.72Y</t>
+          <t>1.08Y</t>
         </is>
       </c>
       <c r="B227" s="4" t="inlineStr">
         <is>
-          <t>20浙交01</t>
+          <t>16光控02</t>
         </is>
       </c>
       <c r="C227" s="4" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="D227" s="4" t="inlineStr">
@@ -10196,41 +9896,25 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="E227" s="5" t="inlineStr">
-        <is>
-          <t>2.43Y</t>
-        </is>
-      </c>
-      <c r="F227" s="5" t="inlineStr">
-        <is>
-          <t>19交通银行01</t>
-        </is>
-      </c>
-      <c r="G227" s="5" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="H227" s="6" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="E227" s="5" t="n"/>
+      <c r="F227" s="5" t="n"/>
+      <c r="G227" s="5" t="n"/>
+      <c r="H227" s="6" t="n"/>
     </row>
     <row r="228">
       <c r="A228" s="3" t="inlineStr">
         <is>
-          <t>4.72Y</t>
+          <t>1.09Y</t>
         </is>
       </c>
       <c r="B228" s="4" t="inlineStr">
         <is>
-          <t>20浙交01</t>
+          <t>16龙控01</t>
         </is>
       </c>
       <c r="C228" s="4" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="D228" s="4" t="inlineStr">
@@ -10238,41 +9922,25 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="E228" s="5" t="inlineStr">
-        <is>
-          <t>2.55Y</t>
-        </is>
-      </c>
-      <c r="F228" s="5" t="inlineStr">
-        <is>
-          <t>20港兴港投PPN001</t>
-        </is>
-      </c>
-      <c r="G228" s="5" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="H228" s="6" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="E228" s="5" t="n"/>
+      <c r="F228" s="5" t="n"/>
+      <c r="G228" s="5" t="n"/>
+      <c r="H228" s="6" t="n"/>
     </row>
     <row r="229">
       <c r="A229" s="3" t="inlineStr">
         <is>
-          <t>4.73Y</t>
+          <t>1.13Y+2Y</t>
         </is>
       </c>
       <c r="B229" s="4" t="inlineStr">
         <is>
-          <t>20中煤01</t>
+          <t>18晋交03</t>
         </is>
       </c>
       <c r="C229" s="4" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="D229" s="4" t="inlineStr">
@@ -10280,41 +9948,25 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="E229" s="5" t="inlineStr">
-        <is>
-          <t>2.55Y</t>
-        </is>
-      </c>
-      <c r="F229" s="5" t="inlineStr">
-        <is>
-          <t>20港兴港投PPN001</t>
-        </is>
-      </c>
-      <c r="G229" s="5" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="H229" s="6" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="E229" s="5" t="n"/>
+      <c r="F229" s="5" t="n"/>
+      <c r="G229" s="5" t="n"/>
+      <c r="H229" s="6" t="n"/>
     </row>
     <row r="230">
       <c r="A230" s="3" t="inlineStr">
         <is>
-          <t>4.73Y</t>
+          <t>1.13Y+2Y</t>
         </is>
       </c>
       <c r="B230" s="4" t="inlineStr">
         <is>
-          <t>20中煤01</t>
+          <t>18晋交03</t>
         </is>
       </c>
       <c r="C230" s="4" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="D230" s="4" t="inlineStr">
@@ -10322,41 +9974,25 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="E230" s="5" t="inlineStr">
-        <is>
-          <t>2.72Y</t>
-        </is>
-      </c>
-      <c r="F230" s="5" t="inlineStr">
-        <is>
-          <t>18湖北科投PPN001</t>
-        </is>
-      </c>
-      <c r="G230" s="5" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="H230" s="6" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="E230" s="5" t="n"/>
+      <c r="F230" s="5" t="n"/>
+      <c r="G230" s="5" t="n"/>
+      <c r="H230" s="6" t="n"/>
     </row>
     <row r="231">
       <c r="A231" s="3" t="inlineStr">
         <is>
-          <t>4.73Y</t>
+          <t>1.13Y+1Y</t>
         </is>
       </c>
       <c r="B231" s="4" t="inlineStr">
         <is>
-          <t>20中煤01</t>
+          <t>19同煤03</t>
         </is>
       </c>
       <c r="C231" s="4" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="D231" s="4" t="inlineStr">
@@ -10364,41 +10000,25 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="E231" s="5" t="inlineStr">
-        <is>
-          <t>2.72Y</t>
-        </is>
-      </c>
-      <c r="F231" s="5" t="inlineStr">
-        <is>
-          <t>20信投G1</t>
-        </is>
-      </c>
-      <c r="G231" s="5" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="H231" s="6" t="inlineStr">
-        <is>
-          <t>AA/AAA</t>
-        </is>
-      </c>
+      <c r="E231" s="5" t="n"/>
+      <c r="F231" s="5" t="n"/>
+      <c r="G231" s="5" t="n"/>
+      <c r="H231" s="6" t="n"/>
     </row>
     <row r="232">
       <c r="A232" s="3" t="inlineStr">
         <is>
-          <t>4.73Y</t>
+          <t>1.27Y</t>
         </is>
       </c>
       <c r="B232" s="4" t="inlineStr">
         <is>
-          <t>20华控01</t>
+          <t>18海淀国资PPN001</t>
         </is>
       </c>
       <c r="C232" s="4" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="D232" s="4" t="inlineStr">
@@ -10406,41 +10026,25 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="E232" s="5" t="inlineStr">
-        <is>
-          <t>2.72Y</t>
-        </is>
-      </c>
-      <c r="F232" s="5" t="inlineStr">
-        <is>
-          <t>20信投G1</t>
-        </is>
-      </c>
-      <c r="G232" s="5" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="H232" s="6" t="inlineStr">
-        <is>
-          <t>AA/AAA</t>
-        </is>
-      </c>
+      <c r="E232" s="5" t="n"/>
+      <c r="F232" s="5" t="n"/>
+      <c r="G232" s="5" t="n"/>
+      <c r="H232" s="6" t="n"/>
     </row>
     <row r="233">
       <c r="A233" s="3" t="inlineStr">
         <is>
-          <t>4.74Y</t>
+          <t>1.33Y</t>
         </is>
       </c>
       <c r="B233" s="4" t="inlineStr">
         <is>
-          <t>20中煤01</t>
+          <t>18东风日产汽车02</t>
         </is>
       </c>
       <c r="C233" s="4" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="D233" s="4" t="inlineStr">
@@ -10448,41 +10052,25 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="E233" s="5" t="inlineStr">
-        <is>
-          <t>2.73Y</t>
-        </is>
-      </c>
-      <c r="F233" s="5" t="inlineStr">
-        <is>
-          <t>20重庆农商债</t>
-        </is>
-      </c>
-      <c r="G233" s="5" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="H233" s="6" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="E233" s="5" t="n"/>
+      <c r="F233" s="5" t="n"/>
+      <c r="G233" s="5" t="n"/>
+      <c r="H233" s="6" t="n"/>
     </row>
     <row r="234">
       <c r="A234" s="3" t="inlineStr">
         <is>
-          <t>4.81Y</t>
+          <t>1.43Y</t>
         </is>
       </c>
       <c r="B234" s="4" t="inlineStr">
         <is>
-          <t>20穗控02</t>
+          <t>18上汽通用债02</t>
         </is>
       </c>
       <c r="C234" s="4" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="D234" s="4" t="inlineStr">
@@ -10490,41 +10078,25 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="E234" s="5" t="inlineStr">
-        <is>
-          <t>2.74Y</t>
-        </is>
-      </c>
-      <c r="F234" s="5" t="inlineStr">
-        <is>
-          <t>20民生银行小微01</t>
-        </is>
-      </c>
-      <c r="G234" s="5" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="H234" s="6" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="E234" s="5" t="n"/>
+      <c r="F234" s="5" t="n"/>
+      <c r="G234" s="5" t="n"/>
+      <c r="H234" s="6" t="n"/>
     </row>
     <row r="235">
       <c r="A235" s="3" t="inlineStr">
         <is>
-          <t>4.81Y</t>
+          <t>1.43Y</t>
         </is>
       </c>
       <c r="B235" s="4" t="inlineStr">
         <is>
-          <t>20穗控02</t>
+          <t>18上汽通用债02</t>
         </is>
       </c>
       <c r="C235" s="4" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="D235" s="4" t="inlineStr">
@@ -10532,41 +10104,25 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="E235" s="5" t="inlineStr">
-        <is>
-          <t>2.76Y</t>
-        </is>
-      </c>
-      <c r="F235" s="5" t="inlineStr">
-        <is>
-          <t>20华泰G1</t>
-        </is>
-      </c>
-      <c r="G235" s="5" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="H235" s="6" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="E235" s="5" t="n"/>
+      <c r="F235" s="5" t="n"/>
+      <c r="G235" s="5" t="n"/>
+      <c r="H235" s="6" t="n"/>
     </row>
     <row r="236">
       <c r="A236" s="3" t="inlineStr">
         <is>
-          <t>4.81Y</t>
+          <t>1.67Y+2Y</t>
         </is>
       </c>
       <c r="B236" s="4" t="inlineStr">
         <is>
-          <t>20穗控02</t>
+          <t>20东资01</t>
         </is>
       </c>
       <c r="C236" s="4" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="D236" s="4" t="inlineStr">
@@ -10574,41 +10130,25 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="E236" s="5" t="inlineStr">
-        <is>
-          <t>2.79Y</t>
-        </is>
-      </c>
-      <c r="F236" s="5" t="inlineStr">
-        <is>
-          <t>20招联消费金融03</t>
-        </is>
-      </c>
-      <c r="G236" s="5" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="H236" s="6" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="E236" s="5" t="n"/>
+      <c r="F236" s="5" t="n"/>
+      <c r="G236" s="5" t="n"/>
+      <c r="H236" s="6" t="n"/>
     </row>
     <row r="237">
       <c r="A237" s="3" t="inlineStr">
         <is>
-          <t>4.83Y</t>
+          <t>1.70Y</t>
         </is>
       </c>
       <c r="B237" s="4" t="inlineStr">
         <is>
-          <t>G20宁铁1</t>
+          <t>19华融湘江银行01</t>
         </is>
       </c>
       <c r="C237" s="4" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="D237" s="4" t="inlineStr">
@@ -10616,41 +10156,25 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="E237" s="5" t="inlineStr">
-        <is>
-          <t>2.79Y</t>
-        </is>
-      </c>
-      <c r="F237" s="5" t="inlineStr">
-        <is>
-          <t>20招联消费金融03</t>
-        </is>
-      </c>
-      <c r="G237" s="5" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="H237" s="6" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="E237" s="5" t="n"/>
+      <c r="F237" s="5" t="n"/>
+      <c r="G237" s="5" t="n"/>
+      <c r="H237" s="6" t="n"/>
     </row>
     <row r="238">
       <c r="A238" s="3" t="inlineStr">
         <is>
-          <t>4.83Y(休1)</t>
+          <t>2.43Y</t>
         </is>
       </c>
       <c r="B238" s="4" t="inlineStr">
         <is>
-          <t>G20宁铁1</t>
+          <t>19交通银行01</t>
         </is>
       </c>
       <c r="C238" s="4" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="D238" s="4" t="inlineStr">
@@ -10658,41 +10182,25 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="E238" s="5" t="inlineStr">
-        <is>
-          <t>2.79Y</t>
-        </is>
-      </c>
-      <c r="F238" s="5" t="inlineStr">
-        <is>
-          <t>20招联消费金融03</t>
-        </is>
-      </c>
-      <c r="G238" s="5" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="H238" s="6" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="E238" s="5" t="n"/>
+      <c r="F238" s="5" t="n"/>
+      <c r="G238" s="5" t="n"/>
+      <c r="H238" s="6" t="n"/>
     </row>
     <row r="239">
       <c r="A239" s="3" t="inlineStr">
         <is>
-          <t>4.83Y</t>
+          <t>2.43Y</t>
         </is>
       </c>
       <c r="B239" s="4" t="inlineStr">
         <is>
-          <t>G20宁铁1</t>
+          <t>19交通银行01</t>
         </is>
       </c>
       <c r="C239" s="4" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="D239" s="4" t="inlineStr">
@@ -10700,41 +10208,25 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="E239" s="5" t="inlineStr">
-        <is>
-          <t>2.82Y</t>
-        </is>
-      </c>
-      <c r="F239" s="5" t="inlineStr">
-        <is>
-          <t>18乌城投PPN001</t>
-        </is>
-      </c>
-      <c r="G239" s="5" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="H239" s="6" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="E239" s="5" t="n"/>
+      <c r="F239" s="5" t="n"/>
+      <c r="G239" s="5" t="n"/>
+      <c r="H239" s="6" t="n"/>
     </row>
     <row r="240">
       <c r="A240" s="3" t="inlineStr">
         <is>
-          <t>4.83Y</t>
+          <t>2.43Y</t>
         </is>
       </c>
       <c r="B240" s="4" t="inlineStr">
         <is>
-          <t>G20宁铁1</t>
+          <t>19交通银行01</t>
         </is>
       </c>
       <c r="C240" s="4" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="D240" s="4" t="inlineStr">
@@ -10742,41 +10234,25 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="E240" s="5" t="inlineStr">
-        <is>
-          <t>2.85Y</t>
-        </is>
-      </c>
-      <c r="F240" s="5" t="inlineStr">
-        <is>
-          <t>20浦发银行01</t>
-        </is>
-      </c>
-      <c r="G240" s="5" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="H240" s="6" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="E240" s="5" t="n"/>
+      <c r="F240" s="5" t="n"/>
+      <c r="G240" s="5" t="n"/>
+      <c r="H240" s="6" t="n"/>
     </row>
     <row r="241">
       <c r="A241" s="3" t="inlineStr">
         <is>
-          <t>4.9Y</t>
+          <t>2.43Y</t>
         </is>
       </c>
       <c r="B241" s="4" t="inlineStr">
         <is>
-          <t>20首创02</t>
+          <t>19交通银行01</t>
         </is>
       </c>
       <c r="C241" s="4" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="D241" s="4" t="inlineStr">
@@ -10784,41 +10260,25 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="E241" s="5" t="inlineStr">
-        <is>
-          <t>2.85Y</t>
-        </is>
-      </c>
-      <c r="F241" s="5" t="inlineStr">
-        <is>
-          <t>20浦发银行01</t>
-        </is>
-      </c>
-      <c r="G241" s="5" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="H241" s="6" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="E241" s="5" t="n"/>
+      <c r="F241" s="5" t="n"/>
+      <c r="G241" s="5" t="n"/>
+      <c r="H241" s="6" t="n"/>
     </row>
     <row r="242">
       <c r="A242" s="3" t="inlineStr">
         <is>
-          <t>5.57Y</t>
+          <t>2.43Y</t>
         </is>
       </c>
       <c r="B242" s="4" t="inlineStr">
         <is>
-          <t>16中油02</t>
+          <t>19交通银行01</t>
         </is>
       </c>
       <c r="C242" s="4" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="D242" s="4" t="inlineStr">
@@ -10826,41 +10286,25 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="E242" s="5" t="inlineStr">
-        <is>
-          <t>2.85Y</t>
-        </is>
-      </c>
-      <c r="F242" s="5" t="inlineStr">
-        <is>
-          <t>20浦发银行01</t>
-        </is>
-      </c>
-      <c r="G242" s="5" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="H242" s="6" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="E242" s="5" t="n"/>
+      <c r="F242" s="5" t="n"/>
+      <c r="G242" s="5" t="n"/>
+      <c r="H242" s="6" t="n"/>
     </row>
     <row r="243">
       <c r="A243" s="3" t="inlineStr">
         <is>
-          <t>6.71Y</t>
+          <t>2.43Y</t>
         </is>
       </c>
       <c r="B243" s="4" t="inlineStr">
         <is>
-          <t>20上投债</t>
+          <t>19交通银行01</t>
         </is>
       </c>
       <c r="C243" s="4" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="D243" s="4" t="inlineStr">
@@ -10868,41 +10312,25 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="E243" s="5" t="inlineStr">
-        <is>
-          <t>2.91Y+2Y</t>
-        </is>
-      </c>
-      <c r="F243" s="5" t="inlineStr">
-        <is>
-          <t>20首业04</t>
-        </is>
-      </c>
-      <c r="G243" s="5" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="H243" s="6" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="E243" s="5" t="n"/>
+      <c r="F243" s="5" t="n"/>
+      <c r="G243" s="5" t="n"/>
+      <c r="H243" s="6" t="n"/>
     </row>
     <row r="244">
       <c r="A244" s="3" t="inlineStr">
         <is>
-          <t>9.72Y</t>
+          <t>2.43Y</t>
         </is>
       </c>
       <c r="B244" s="4" t="inlineStr">
         <is>
-          <t>20浙交02</t>
+          <t>19交通银行01</t>
         </is>
       </c>
       <c r="C244" s="4" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="D244" s="4" t="inlineStr">
@@ -10910,41 +10338,25 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="E244" s="5" t="inlineStr">
-        <is>
-          <t>4.87Y</t>
-        </is>
-      </c>
-      <c r="F244" s="5" t="inlineStr">
-        <is>
-          <t>20兴业银行小微02</t>
-        </is>
-      </c>
-      <c r="G244" s="5" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="H244" s="6" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="E244" s="5" t="n"/>
+      <c r="F244" s="5" t="n"/>
+      <c r="G244" s="5" t="n"/>
+      <c r="H244" s="6" t="n"/>
     </row>
     <row r="245">
       <c r="A245" s="3" t="inlineStr">
         <is>
-          <t>20.00Y</t>
+          <t>2.43Y</t>
         </is>
       </c>
       <c r="B245" s="4" t="inlineStr">
         <is>
-          <t>20铁道03</t>
+          <t>19交通银行01</t>
         </is>
       </c>
       <c r="C245" s="4" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="D245" s="4" t="inlineStr">
@@ -10952,41 +10364,25 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="E245" s="5" t="inlineStr">
-        <is>
-          <t>4.87Y</t>
-        </is>
-      </c>
-      <c r="F245" s="5" t="inlineStr">
-        <is>
-          <t>20兴业银行小微02</t>
-        </is>
-      </c>
-      <c r="G245" s="5" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="H245" s="6" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="E245" s="5" t="n"/>
+      <c r="F245" s="5" t="n"/>
+      <c r="G245" s="5" t="n"/>
+      <c r="H245" s="6" t="n"/>
     </row>
     <row r="246">
       <c r="A246" s="3" t="inlineStr">
         <is>
-          <t>20.00Y</t>
+          <t>2.43Y</t>
         </is>
       </c>
       <c r="B246" s="4" t="inlineStr">
         <is>
-          <t>20铁道03</t>
+          <t>19交通银行01</t>
         </is>
       </c>
       <c r="C246" s="4" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="D246" s="4" t="inlineStr">
@@ -10994,71 +10390,51 @@
           <t>AAA</t>
         </is>
       </c>
-      <c r="E246" s="5" t="inlineStr">
-        <is>
-          <t>4.87Y</t>
-        </is>
-      </c>
-      <c r="F246" s="5" t="inlineStr">
-        <is>
-          <t>20兴业银行小微02</t>
-        </is>
-      </c>
-      <c r="G246" s="5" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="H246" s="6" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="E246" s="5" t="n"/>
+      <c r="F246" s="5" t="n"/>
+      <c r="G246" s="5" t="n"/>
+      <c r="H246" s="6" t="n"/>
     </row>
     <row r="247">
-      <c r="A247" s="33" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="B247" s="34" t="n"/>
-      <c r="C247" s="34" t="n"/>
-      <c r="D247" s="35" t="n"/>
-      <c r="E247" s="5" t="inlineStr">
-        <is>
-          <t>4.87Y</t>
-        </is>
-      </c>
-      <c r="F247" s="5" t="inlineStr">
-        <is>
-          <t>20兴业银行小微02</t>
-        </is>
-      </c>
-      <c r="G247" s="5" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="H247" s="6" t="inlineStr">
-        <is>
-          <t>AAA</t>
-        </is>
-      </c>
+      <c r="A247" s="3" t="inlineStr">
+        <is>
+          <t>2.43Y</t>
+        </is>
+      </c>
+      <c r="B247" s="4" t="inlineStr">
+        <is>
+          <t>19交通银行01</t>
+        </is>
+      </c>
+      <c r="C247" s="4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="D247" s="4" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="E247" s="5" t="n"/>
+      <c r="F247" s="5" t="n"/>
+      <c r="G247" s="5" t="n"/>
+      <c r="H247" s="6" t="n"/>
     </row>
     <row r="248">
       <c r="A248" s="7" t="inlineStr">
         <is>
-          <t>45D</t>
+          <t>2.43Y</t>
         </is>
       </c>
       <c r="B248" s="8" t="inlineStr">
         <is>
-          <t>17冀中能源PPN001</t>
+          <t>19交通银行01</t>
         </is>
       </c>
       <c r="C248" s="8" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="D248" s="8" t="inlineStr">
@@ -18177,8 +17553,8 @@
     <mergeCell ref="E249:H249"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E78:H78"/>
-    <mergeCell ref="A247:D247"/>
+    <mergeCell ref="E76:H76"/>
+    <mergeCell ref="A218:D218"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" scale="94"/>
